--- a/nodes_source_analyses/energy/energy_steam_methane_reformer_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_steam_methane_reformer_hydrogen.converter.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -12,11 +12,10 @@
     <sheet name="Research data" sheetId="13" r:id="rId3"/>
     <sheet name="Sources" sheetId="15" r:id="rId4"/>
     <sheet name="Notes" sheetId="20" r:id="rId5"/>
-    <sheet name="Exchange_rates" sheetId="21" r:id="rId6"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -38,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="183">
   <si>
     <t>Source</t>
   </si>
@@ -210,9 +209,6 @@
   </si>
   <si>
     <t>NL</t>
-  </si>
-  <si>
-    <t>This sheet contains currency exchange rates. These are automatically updated from exchange rate files in the same folder. This only works if you open this `&lt;carrier name&gt;.xlsx` workbook using the `carrier_manager.xlsm` document.</t>
   </si>
   <si>
     <t>Exchange rate</t>
@@ -480,15 +476,6 @@
   </si>
   <si>
     <t>acres</t>
-  </si>
-  <si>
-    <t>&gt; This efficiency is higher for newer plants</t>
-  </si>
-  <si>
-    <t>(Up to 85%)</t>
-  </si>
-  <si>
-    <t>TO DO: update efficiency</t>
   </si>
   <si>
     <t>DOE: Hydrogen and Fuel Cells Program</t>
@@ -694,7 +681,7 @@
     <numFmt numFmtId="169" formatCode="0.00000"/>
     <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -917,13 +904,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -940,6 +920,29 @@
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lettertype hoofdtekst"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1016,7 +1019,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1222,37 +1225,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1266,7 +1238,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="434">
+  <cellStyleXfs count="440">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1545,7 +1517,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1705,7 +1683,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1855,18 +1833,6 @@
     </xf>
     <xf numFmtId="166" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1921,7 +1887,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1929,14 +1894,14 @@
     <xf numFmtId="9" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="6" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1959,6 +1924,24 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="31" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1986,17 +1969,8 @@
     <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="434">
+  <cellStyles count="440">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2340,6 +2314,12 @@
     <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="433" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="435" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2522,8 +2502,8 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1993900</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -2599,7 +2579,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -2636,8 +2616,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2032000</xdr:colOff>
       <xdr:row>153</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -2674,8 +2654,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3987800</xdr:colOff>
       <xdr:row>206</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -2712,8 +2692,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3937000</xdr:colOff>
       <xdr:row>264</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
@@ -2742,6 +2722,62 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3632200" cy="723900"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1041400" y="1346200"/>
+          <a:ext cx="3632200" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>This central steam methane reforming plant is based on the Air Liquide</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> plant in the Botlek area. It is CCS-ready, so it will also be the reference plant for the Steam methane reformer with CCS converter.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3246,7 +3282,7 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -3281,7 +3317,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3457,36 +3493,36 @@
       <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="184" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="181"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="186"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="182"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="184"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="189"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="182"/>
-      <c r="C4" s="183"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="184"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="189"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="185"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="187"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="192"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
@@ -3558,8 +3594,8 @@
     </row>
     <row r="12" spans="1:11" s="26" customFormat="1" ht="16" thickBot="1">
       <c r="B12" s="25"/>
-      <c r="C12" s="122" t="s">
-        <v>68</v>
+      <c r="C12" s="110" t="s">
+        <v>67</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="107">
@@ -3567,20 +3603,20 @@
         <v>0.98772377869930217</v>
       </c>
       <c r="F12" s="39"/>
-      <c r="G12" s="122" t="s">
-        <v>120</v>
+      <c r="G12" s="110" t="s">
+        <v>119</v>
       </c>
       <c r="H12" s="32"/>
-      <c r="I12" s="125" t="s">
-        <v>69</v>
+      <c r="I12" s="113" t="s">
+        <v>68</v>
       </c>
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="16" thickBot="1">
       <c r="A13" s="26"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="122" t="s">
-        <v>67</v>
+      <c r="C13" s="110" t="s">
+        <v>66</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="107">
@@ -3588,12 +3624,12 @@
         <v>1.2276221300697885E-2</v>
       </c>
       <c r="F13" s="39"/>
-      <c r="G13" s="122" t="s">
-        <v>121</v>
+      <c r="G13" s="110" t="s">
+        <v>120</v>
       </c>
       <c r="H13" s="32"/>
-      <c r="I13" s="125" t="s">
-        <v>69</v>
+      <c r="I13" s="113" t="s">
+        <v>68</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="26"/>
@@ -3601,8 +3637,8 @@
     <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="26"/>
       <c r="B14" s="25"/>
-      <c r="C14" s="122" t="s">
-        <v>66</v>
+      <c r="C14" s="110" t="s">
+        <v>65</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>2</v>
@@ -3612,64 +3648,64 @@
         <v>0.72</v>
       </c>
       <c r="F14" s="39"/>
-      <c r="G14" s="122" t="s">
+      <c r="G14" s="110" t="s">
         <v>50</v>
       </c>
       <c r="H14" s="32"/>
-      <c r="I14" s="125" t="s">
-        <v>69</v>
+      <c r="I14" s="113" t="s">
+        <v>68</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:11" ht="16" thickBot="1">
-      <c r="A15" s="126"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="122" t="s">
-        <v>81</v>
+      <c r="A15" s="114"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="110" t="s">
+        <v>80</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="107">
         <f>'Research data'!H10</f>
         <v>363.21909722222222</v>
       </c>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122" t="s">
-        <v>119</v>
-      </c>
-      <c r="H15" s="122"/>
-      <c r="I15" s="125" t="s">
+      <c r="F15" s="110"/>
+      <c r="G15" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="129"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" s="117"/>
       <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" ht="16" thickBot="1">
-      <c r="A16" s="126"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="165" t="s">
-        <v>163</v>
+      <c r="A16" s="114"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="152" t="s">
+        <v>159</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="107">
         <f>'Research data'!H12</f>
         <v>7500</v>
       </c>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="167" t="s">
-        <v>166</v>
-      </c>
-      <c r="J16" s="129"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="154" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" s="117"/>
       <c r="K16" s="36"/>
     </row>
     <row r="17" spans="1:10" ht="16" thickBot="1">
-      <c r="B17" s="127"/>
-      <c r="C17" s="122" t="s">
-        <v>85</v>
+      <c r="B17" s="115"/>
+      <c r="C17" s="110" t="s">
+        <v>84</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2</v>
@@ -3678,30 +3714,30 @@
         <f>'Research data'!H11</f>
         <v>0.9</v>
       </c>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="125" t="s">
-        <v>161</v>
-      </c>
-      <c r="J17" s="129"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="113" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" s="117"/>
     </row>
     <row r="18" spans="1:10" ht="16" thickBot="1">
-      <c r="B18" s="127"/>
-      <c r="C18" s="122" t="s">
-        <v>86</v>
+      <c r="B18" s="115"/>
+      <c r="C18" s="110" t="s">
+        <v>85</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="130">
+      <c r="E18" s="118">
         <v>0</v>
       </c>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="125"/>
-      <c r="J18" s="129"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="117"/>
     </row>
     <row r="19" spans="1:10">
       <c r="B19" s="40"/>
@@ -3744,8 +3780,8 @@
         <v>6</v>
       </c>
       <c r="H21" s="39"/>
-      <c r="I21" s="125" t="s">
-        <v>118</v>
+      <c r="I21" s="113" t="s">
+        <v>117</v>
       </c>
       <c r="J21" s="94"/>
     </row>
@@ -3762,378 +3798,378 @@
         <v>2079770.4918032784</v>
       </c>
       <c r="F22" s="39"/>
-      <c r="G22" s="169" t="s">
-        <v>176</v>
+      <c r="G22" s="156" t="s">
+        <v>172</v>
       </c>
       <c r="H22" s="39"/>
-      <c r="I22" s="125" t="s">
-        <v>161</v>
+      <c r="I22" s="113" t="s">
+        <v>157</v>
       </c>
       <c r="J22" s="94"/>
     </row>
     <row r="23" spans="1:10" ht="16" thickBot="1">
-      <c r="B23" s="159"/>
-      <c r="C23" s="168" t="s">
-        <v>170</v>
-      </c>
-      <c r="D23" s="161" t="s">
-        <v>159</v>
+      <c r="B23" s="146"/>
+      <c r="C23" s="155" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="148" t="s">
+        <v>155</v>
       </c>
       <c r="E23" s="107">
         <f>'Research data'!H23</f>
         <v>277.30273224043714</v>
       </c>
-      <c r="F23" s="162"/>
-      <c r="G23" s="160" t="s">
-        <v>160</v>
-      </c>
-      <c r="H23" s="162"/>
-      <c r="I23" s="163" t="s">
-        <v>161</v>
-      </c>
-      <c r="J23" s="164"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="147" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" s="149"/>
+      <c r="I23" s="150" t="s">
+        <v>157</v>
+      </c>
+      <c r="J23" s="151"/>
     </row>
     <row r="24" spans="1:10" ht="16" thickBot="1">
-      <c r="B24" s="159"/>
-      <c r="C24" s="168" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="161"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="155" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="148"/>
       <c r="E24" s="107">
         <f>'Research data'!H24</f>
         <v>0</v>
       </c>
-      <c r="F24" s="162"/>
-      <c r="G24" s="168" t="s">
-        <v>172</v>
-      </c>
-      <c r="H24" s="162"/>
-      <c r="I24" s="177" t="s">
-        <v>184</v>
-      </c>
-      <c r="J24" s="164"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="155" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="149"/>
+      <c r="I24" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" s="151"/>
     </row>
     <row r="25" spans="1:10" ht="16" thickBot="1">
-      <c r="B25" s="159"/>
-      <c r="C25" s="168" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="161"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="155" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="148"/>
       <c r="E25" s="107">
         <f>'Research data'!H25</f>
         <v>0</v>
       </c>
-      <c r="F25" s="162"/>
-      <c r="G25" s="168" t="s">
-        <v>173</v>
-      </c>
-      <c r="H25" s="162"/>
-      <c r="I25" s="177" t="s">
-        <v>184</v>
-      </c>
-      <c r="J25" s="164"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="155" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="149"/>
+      <c r="I25" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="J25" s="151"/>
     </row>
     <row r="26" spans="1:10" ht="16" thickBot="1">
-      <c r="B26" s="159"/>
-      <c r="C26" s="178" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="161"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="165" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="148"/>
       <c r="E26" s="107">
         <f>'Research data'!H26</f>
         <v>13648961.293260474</v>
       </c>
-      <c r="F26" s="162"/>
-      <c r="G26" s="168" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="162"/>
-      <c r="I26" s="163" t="s">
-        <v>161</v>
-      </c>
-      <c r="J26" s="164"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="155" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" s="149"/>
+      <c r="I26" s="150" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26" s="151"/>
     </row>
     <row r="27" spans="1:10" ht="16" thickBot="1">
-      <c r="B27" s="159"/>
-      <c r="C27" s="168" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="161"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="155" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="148"/>
       <c r="E27" s="107">
         <f>'Research data'!H27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="162"/>
-      <c r="G27" s="169" t="s">
-        <v>175</v>
-      </c>
-      <c r="H27" s="162"/>
-      <c r="I27" s="177" t="s">
-        <v>184</v>
-      </c>
-      <c r="J27" s="164"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="156" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27" s="149"/>
+      <c r="I27" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27" s="151"/>
     </row>
     <row r="28" spans="1:10" ht="16" thickBot="1">
-      <c r="A28" s="126"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="122" t="s">
+      <c r="A28" s="114"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="E28" s="118">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="130">
-        <v>0.1</v>
-      </c>
-      <c r="F28" s="122"/>
-      <c r="G28" s="122" t="s">
+      <c r="H28" s="110"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="117"/>
+    </row>
+    <row r="29" spans="1:10" ht="16" thickBot="1">
+      <c r="A29" s="114"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="122"/>
-      <c r="I28" s="125"/>
-      <c r="J28" s="129"/>
-    </row>
-    <row r="29" spans="1:10" ht="16" thickBot="1">
-      <c r="A29" s="126"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="122" t="s">
+      <c r="D29" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="130">
+      <c r="E29" s="118">
         <v>1</v>
       </c>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="129"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="117"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="126"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="122"/>
+      <c r="A30" s="114"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="110"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="129"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="117"/>
     </row>
     <row r="31" spans="1:10" ht="16" thickBot="1">
-      <c r="A31" s="126"/>
-      <c r="B31" s="127"/>
+      <c r="A31" s="114"/>
+      <c r="B31" s="115"/>
       <c r="C31" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="95"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="129"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="117"/>
     </row>
     <row r="32" spans="1:10" ht="16" thickBot="1">
-      <c r="A32" s="126"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="122" t="s">
+      <c r="A32" s="114"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="110" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="130">
+      <c r="E32" s="118">
         <f>'Research data'!H31</f>
         <v>40</v>
       </c>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122" t="s">
-        <v>99</v>
-      </c>
-      <c r="H32" s="122"/>
-      <c r="I32" s="125" t="s">
-        <v>143</v>
-      </c>
-      <c r="J32" s="129"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="110"/>
+      <c r="I32" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="J32" s="117"/>
     </row>
     <row r="33" spans="1:10" ht="16" thickBot="1">
-      <c r="A33" s="126"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="122" t="s">
-        <v>97</v>
+      <c r="A33" s="114"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="110" t="s">
+        <v>96</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="130">
+      <c r="E33" s="118">
         <f>'Research data'!H32</f>
         <v>3</v>
       </c>
-      <c r="F33" s="122"/>
-      <c r="G33" s="122" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="122"/>
-      <c r="I33" s="125" t="s">
-        <v>143</v>
-      </c>
-      <c r="J33" s="129"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="110"/>
+      <c r="I33" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="J33" s="117"/>
     </row>
     <row r="34" spans="1:10" ht="16" thickBot="1">
-      <c r="A34" s="126"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="122" t="s">
+      <c r="A34" s="114"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="151">
+      <c r="E34" s="138">
         <f>'Research data'!H33</f>
         <v>3.235581614498978E-2</v>
       </c>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122" t="s">
-        <v>105</v>
-      </c>
-      <c r="H34" s="122"/>
-      <c r="I34" s="125" t="s">
-        <v>143</v>
-      </c>
-      <c r="J34" s="129"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="110"/>
+      <c r="I34" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="J34" s="117"/>
     </row>
     <row r="35" spans="1:10" ht="16" thickBot="1">
-      <c r="A35" s="126"/>
-      <c r="B35" s="127"/>
-      <c r="C35" s="122" t="s">
+      <c r="A35" s="114"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="110" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="130">
+      <c r="E35" s="118">
         <v>0</v>
       </c>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="125"/>
-      <c r="J35" s="129"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="117"/>
     </row>
     <row r="36" spans="1:10" ht="16" thickBot="1">
-      <c r="A36" s="126"/>
-      <c r="B36" s="134"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
-      <c r="J36" s="136"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="124"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="126"/>
-      <c r="B37" s="126"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="126"/>
-      <c r="B38" s="126"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="126"/>
-      <c r="I38" s="126"/>
-      <c r="J38" s="126"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="126"/>
-      <c r="B39" s="126"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="126"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="114"/>
+      <c r="I39" s="114"/>
+      <c r="J39" s="114"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="126"/>
-      <c r="B40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="126"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="126"/>
-      <c r="B41" s="126"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="126"/>
-      <c r="B42" s="126"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="126"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="126"/>
-      <c r="B43" s="126"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="126"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="114"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="114"/>
+      <c r="I43" s="114"/>
+      <c r="J43" s="114"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="126"/>
-      <c r="B44" s="126"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="126"/>
-      <c r="J44" s="126"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="126"/>
+      <c r="A45" s="114"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="126"/>
+      <c r="A46" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4257,19 +4293,19 @@
       </c>
       <c r="I4" s="91"/>
       <c r="J4" s="91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" s="91"/>
       <c r="L4" s="91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M4" s="91"/>
       <c r="N4" s="91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O4" s="91"/>
       <c r="P4" s="91" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="91"/>
       <c r="R4" s="91" t="s">
@@ -4315,8 +4351,8 @@
     </row>
     <row r="7" spans="1:21" ht="16" thickBot="1">
       <c r="B7" s="45"/>
-      <c r="C7" s="124" t="s">
-        <v>68</v>
+      <c r="C7" s="112" t="s">
+        <v>67</v>
       </c>
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
@@ -4338,12 +4374,12 @@
       <c r="O7" s="46"/>
       <c r="P7" s="46"/>
       <c r="Q7" s="46"/>
-      <c r="R7" s="121"/>
+      <c r="R7" s="109"/>
     </row>
     <row r="8" spans="1:21" ht="16" thickBot="1">
       <c r="B8" s="45"/>
-      <c r="C8" s="124" t="s">
-        <v>67</v>
+      <c r="C8" s="112" t="s">
+        <v>66</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
@@ -4365,12 +4401,12 @@
       <c r="O8" s="46"/>
       <c r="P8" s="46"/>
       <c r="Q8" s="46"/>
-      <c r="R8" s="121"/>
+      <c r="R8" s="109"/>
     </row>
     <row r="9" spans="1:21" ht="16" thickBot="1">
       <c r="B9" s="45"/>
-      <c r="C9" s="124" t="s">
-        <v>66</v>
+      <c r="C9" s="112" t="s">
+        <v>65</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
@@ -4398,13 +4434,13 @@
     </row>
     <row r="10" spans="1:21" ht="16" thickBot="1">
       <c r="B10" s="45"/>
-      <c r="C10" s="124" t="s">
-        <v>81</v>
+      <c r="C10" s="112" t="s">
+        <v>80</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
-      <c r="F10" s="138" t="s">
-        <v>80</v>
+      <c r="F10" s="126" t="s">
+        <v>79</v>
       </c>
       <c r="G10" s="92"/>
       <c r="H10" s="106">
@@ -4412,7 +4448,7 @@
         <v>363.21909722222222</v>
       </c>
       <c r="I10" s="48"/>
-      <c r="J10" s="123"/>
+      <c r="J10" s="111"/>
       <c r="K10" s="48"/>
       <c r="L10" s="106">
         <f>Notes!E66</f>
@@ -4423,13 +4459,13 @@
       <c r="O10" s="46"/>
       <c r="P10" s="46"/>
       <c r="Q10" s="46"/>
-      <c r="R10" s="121"/>
+      <c r="R10" s="109"/>
     </row>
     <row r="11" spans="1:21" ht="16" thickBot="1">
-      <c r="A11" s="126"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="122" t="s">
-        <v>85</v>
+      <c r="A11" s="114"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="110" t="s">
+        <v>84</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="51"/>
@@ -4437,112 +4473,112 @@
         <v>2</v>
       </c>
       <c r="G11" s="92"/>
-      <c r="H11" s="128">
+      <c r="H11" s="116">
         <f>N11</f>
         <v>0.9</v>
       </c>
-      <c r="I11" s="122"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="144">
+      <c r="I11" s="110"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="132">
         <f>Notes!E127</f>
         <v>0.9</v>
       </c>
-      <c r="O11" s="126"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="166"/>
-      <c r="S11" s="126"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="114"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="114"/>
     </row>
     <row r="12" spans="1:21" ht="16" thickBot="1">
-      <c r="A12" s="126"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="165" t="s">
-        <v>163</v>
-      </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="152" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" s="128">
+        <v>161</v>
+      </c>
+      <c r="H12" s="116">
         <f>P12</f>
         <v>7500</v>
       </c>
-      <c r="I12" s="122"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="158"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="144">
+      <c r="I12" s="110"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="132">
         <f>Notes!E128</f>
         <v>7500</v>
       </c>
-      <c r="Q12" s="126"/>
-      <c r="R12" s="166"/>
-      <c r="S12" s="126"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="114"/>
     </row>
     <row r="13" spans="1:21" ht="16" thickBot="1">
-      <c r="A13" s="126"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="154" t="s">
-        <v>87</v>
+      <c r="A13" s="114"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="141" t="s">
+        <v>86</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="125">
+      <c r="H13" s="113">
         <v>0.1</v>
       </c>
-      <c r="I13" s="122"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="126"/>
-      <c r="R13" s="166"/>
-      <c r="S13" s="126"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="114"/>
     </row>
     <row r="14" spans="1:21" ht="16" thickBot="1">
-      <c r="A14" s="126"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="154" t="s">
-        <v>88</v>
+      <c r="A14" s="114"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="141" t="s">
+        <v>87</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
       <c r="F14" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="125">
+      <c r="H14" s="113">
         <v>0.7</v>
       </c>
-      <c r="I14" s="122"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="126"/>
-      <c r="R14" s="166"/>
-      <c r="S14" s="126"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="114"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="114"/>
+      <c r="Q14" s="114"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="114"/>
     </row>
     <row r="15" spans="1:21" ht="16" thickBot="1">
-      <c r="A15" s="126"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="122" t="s">
-        <v>86</v>
+      <c r="A15" s="114"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="110" t="s">
+        <v>85</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -4550,43 +4586,43 @@
         <v>2</v>
       </c>
       <c r="G15" s="11"/>
-      <c r="H15" s="130">
+      <c r="H15" s="118">
         <v>0</v>
       </c>
-      <c r="Q15" s="126"/>
-      <c r="R15" s="166"/>
-      <c r="S15" s="126"/>
+      <c r="Q15" s="114"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="114"/>
     </row>
     <row r="16" spans="1:21">
       <c r="B16" s="45"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="126"/>
-      <c r="K16" s="126"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="114"/>
+      <c r="K16" s="114"/>
       <c r="L16" s="54"/>
       <c r="M16" s="48"/>
       <c r="N16" s="54"/>
       <c r="O16" s="46"/>
       <c r="P16" s="46"/>
       <c r="Q16" s="46"/>
-      <c r="R16" s="166"/>
+      <c r="R16" s="153"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="126"/>
-      <c r="B17" s="127"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="115"/>
       <c r="C17" s="34"/>
       <c r="F17" s="34"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="140"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="128"/>
       <c r="Q17" s="46"/>
       <c r="R17" s="55"/>
     </row>
     <row r="18" spans="1:18" ht="16" thickBot="1">
-      <c r="A18" s="126"/>
-      <c r="B18" s="127"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="12" t="s">
         <v>42</v>
       </c>
@@ -4596,243 +4632,243 @@
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="140"/>
+      <c r="M18" s="128"/>
       <c r="Q18" s="48"/>
-      <c r="R18" s="121"/>
+      <c r="R18" s="109"/>
     </row>
     <row r="19" spans="1:18" ht="16" thickBot="1">
-      <c r="A19" s="126"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="143" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="143" t="s">
+      <c r="A19" s="114"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="131" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="139">
+      <c r="H19" s="127">
         <f>N19</f>
         <v>160000000</v>
       </c>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="144">
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="132">
         <f>Notes!E69</f>
         <v>160000000</v>
       </c>
       <c r="Q19" s="48"/>
-      <c r="R19" s="121"/>
+      <c r="R19" s="109"/>
     </row>
     <row r="20" spans="1:18" ht="16" thickBot="1">
-      <c r="A20" s="126"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="143" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="145" t="s">
+      <c r="A20" s="114"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="131" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="139">
+      <c r="H20" s="127">
         <f>N20</f>
         <v>2648341.5300546447</v>
       </c>
-      <c r="J20" s="140"/>
-      <c r="L20" s="140"/>
-      <c r="M20" s="140"/>
-      <c r="N20" s="144">
+      <c r="J20" s="128"/>
+      <c r="L20" s="128"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="132">
         <f>Notes!E205</f>
         <v>2648341.5300546447</v>
       </c>
-      <c r="R20" s="148" t="s">
-        <v>126</v>
+      <c r="R20" s="136" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="16" thickBot="1">
-      <c r="A21" s="126"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="143" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="145" t="s">
+      <c r="A21" s="114"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="131" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="155">
+      <c r="H21" s="142">
         <f>N21</f>
         <v>2079770.4918032784</v>
       </c>
-      <c r="J21" s="140"/>
-      <c r="L21" s="140"/>
-      <c r="M21" s="140"/>
-      <c r="N21" s="144">
+      <c r="J21" s="128"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="132">
         <f>Notes!E235</f>
         <v>2079770.4918032784</v>
       </c>
-      <c r="R21" s="148" t="s">
-        <v>126</v>
+      <c r="R21" s="136" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="16" thickBot="1">
-      <c r="A22" s="126"/>
-      <c r="B22" s="127"/>
-      <c r="C22" s="143" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="138" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="156">
+      <c r="A22" s="114"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="131" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="126" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="143">
         <f>N22</f>
         <v>2.120718247541034E-4</v>
       </c>
-      <c r="J22" s="140"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="155">
+      <c r="J22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="142">
         <f>Notes!E240</f>
         <v>2.120718247541034E-4</v>
       </c>
-      <c r="R22" s="148" t="s">
-        <v>126</v>
+      <c r="R22" s="136" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="16" thickBot="1">
-      <c r="A23" s="126"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="143" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="138" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="155">
+      <c r="A23" s="114"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="131" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="142">
         <f>Notes!E241</f>
         <v>277.30273224043714</v>
       </c>
-      <c r="J23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="155">
+      <c r="J23" s="129"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="142">
         <f>Notes!E241</f>
         <v>277.30273224043714</v>
       </c>
-      <c r="R23" s="148" t="s">
-        <v>126</v>
+      <c r="R23" s="136" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="16" thickBot="1">
-      <c r="A24" s="171"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="170" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="170" t="s">
+      <c r="A24" s="158"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="157" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="158"/>
+      <c r="E24" s="158"/>
+      <c r="F24" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="171"/>
-      <c r="H24" s="173">
+      <c r="G24" s="158"/>
+      <c r="H24" s="160">
         <f>N24</f>
         <v>0</v>
       </c>
-      <c r="I24" s="174"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="174"/>
-      <c r="M24" s="171"/>
-      <c r="N24" s="173">
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="161"/>
+      <c r="M24" s="158"/>
+      <c r="N24" s="160">
         <v>0</v>
       </c>
-      <c r="O24" s="175"/>
-      <c r="Q24" s="171"/>
-      <c r="R24" s="175" t="s">
-        <v>183</v>
+      <c r="O24" s="162"/>
+      <c r="Q24" s="158"/>
+      <c r="R24" s="162" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="16" thickBot="1">
-      <c r="A25" s="171"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="170" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="170" t="s">
+      <c r="A25" s="158"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="157" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="158"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="171"/>
-      <c r="H25" s="173">
+      <c r="G25" s="158"/>
+      <c r="H25" s="160">
         <f>N25</f>
         <v>0</v>
       </c>
-      <c r="I25" s="174"/>
-      <c r="J25" s="174"/>
-      <c r="K25" s="174"/>
-      <c r="M25" s="171"/>
-      <c r="N25" s="173">
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="161"/>
+      <c r="M25" s="158"/>
+      <c r="N25" s="160">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="O25" s="171"/>
-      <c r="Q25" s="171"/>
-      <c r="R25" s="175" t="s">
-        <v>183</v>
+      <c r="O25" s="158"/>
+      <c r="Q25" s="158"/>
+      <c r="R25" s="162" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="16" thickBot="1">
-      <c r="A26" s="126"/>
-      <c r="B26" s="127"/>
-      <c r="C26" s="170" t="s">
-        <v>178</v>
-      </c>
-      <c r="F26" s="170" t="s">
+      <c r="A26" s="114"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="144">
+      <c r="H26" s="132">
         <f>N26</f>
         <v>13648961.293260474</v>
       </c>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="144">
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="132">
         <f>Notes!E173</f>
         <v>13648961.293260474</v>
       </c>
-      <c r="R26" s="148"/>
+      <c r="R26" s="136"/>
     </row>
     <row r="27" spans="1:18" ht="16" thickBot="1">
-      <c r="A27" s="171"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="176" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="171"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="170" t="s">
-        <v>159</v>
-      </c>
-      <c r="G27" s="171"/>
-      <c r="H27" s="173">
+      <c r="A27" s="158"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="163" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="157" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="158"/>
+      <c r="H27" s="160">
         <f>N27</f>
         <v>0</v>
       </c>
-      <c r="I27" s="174"/>
-      <c r="J27" s="174"/>
-      <c r="K27" s="174"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="173">
+      <c r="I27" s="161"/>
+      <c r="J27" s="161"/>
+      <c r="K27" s="161"/>
+      <c r="M27" s="158"/>
+      <c r="N27" s="160">
         <v>0</v>
       </c>
-      <c r="O27" s="171"/>
-      <c r="Q27" s="171"/>
-      <c r="R27" s="166" t="s">
-        <v>183</v>
+      <c r="O27" s="158"/>
+      <c r="Q27" s="158"/>
+      <c r="R27" s="153" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -4840,11 +4876,11 @@
     </row>
     <row r="29" spans="1:18">
       <c r="B29" s="45"/>
-      <c r="R29" s="121"/>
+      <c r="R29" s="109"/>
     </row>
     <row r="30" spans="1:18" ht="16" thickBot="1">
-      <c r="A30" s="126"/>
-      <c r="B30" s="127"/>
+      <c r="A30" s="114"/>
+      <c r="B30" s="115"/>
       <c r="C30" s="34" t="s">
         <v>5</v>
       </c>
@@ -4859,94 +4895,94 @@
       <c r="O30" s="46"/>
       <c r="P30" s="46"/>
       <c r="Q30" s="46"/>
-      <c r="R30" s="166"/>
+      <c r="R30" s="153"/>
     </row>
     <row r="31" spans="1:18" ht="16" thickBot="1">
-      <c r="A31" s="126"/>
-      <c r="B31" s="127"/>
-      <c r="C31" s="142" t="s">
+      <c r="A31" s="114"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="138" t="s">
+      <c r="F31" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="H31" s="139">
+      <c r="H31" s="127">
         <f>N31</f>
         <v>40</v>
       </c>
-      <c r="I31" s="140"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="140"/>
-      <c r="L31" s="140"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="144">
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="128"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="132">
         <f>Notes!E134</f>
         <v>40</v>
       </c>
       <c r="O31" s="46"/>
       <c r="P31" s="46"/>
       <c r="Q31" s="46"/>
-      <c r="R31" s="166"/>
+      <c r="R31" s="153"/>
     </row>
     <row r="32" spans="1:18" ht="16" thickBot="1">
-      <c r="A32" s="126"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="124" t="s">
-        <v>106</v>
-      </c>
-      <c r="F32" s="138" t="s">
+      <c r="A32" s="114"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="H32" s="139">
+      <c r="H32" s="127">
         <f t="shared" ref="H32" si="0">N32</f>
         <v>3</v>
       </c>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="144">
+      <c r="I32" s="129"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="132">
         <f>Notes!E135</f>
         <v>3</v>
       </c>
       <c r="O32" s="46"/>
       <c r="P32" s="46"/>
       <c r="Q32" s="46"/>
-      <c r="R32" s="166"/>
+      <c r="R32" s="153"/>
     </row>
     <row r="33" spans="1:18" ht="16" thickBot="1">
-      <c r="A33" s="126"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="137" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="138" t="s">
-        <v>96</v>
-      </c>
-      <c r="H33" s="150">
+      <c r="A33" s="114"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="125" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="137">
         <f>N33</f>
         <v>3.235581614498978E-2</v>
       </c>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="144">
+      <c r="N33" s="132">
         <f>Notes!E178</f>
         <v>3.235581614498978E-2</v>
       </c>
       <c r="O33" s="46"/>
       <c r="P33" s="46"/>
       <c r="Q33" s="46"/>
-      <c r="R33" s="148" t="s">
-        <v>126</v>
+      <c r="R33" s="136" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="16" thickBot="1">
-      <c r="A34" s="126"/>
-      <c r="B34" s="127"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="104" t="s">
         <v>21</v>
       </c>
@@ -4954,62 +4990,62 @@
       <c r="H34" s="52">
         <v>0</v>
       </c>
-      <c r="R34" s="121"/>
+      <c r="R34" s="109"/>
     </row>
     <row r="35" spans="1:18" ht="16" thickBot="1">
-      <c r="A35" s="126"/>
-      <c r="B35" s="127"/>
-      <c r="C35" s="154" t="s">
+      <c r="A35" s="114"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="141" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="118">
+        <v>442800</v>
+      </c>
+      <c r="R35" s="153"/>
+    </row>
+    <row r="36" spans="1:18" ht="16" thickBot="1">
+      <c r="A36" s="114"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="141" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="130">
-        <v>442800</v>
-      </c>
-      <c r="R35" s="166"/>
-    </row>
-    <row r="36" spans="1:18" ht="16" thickBot="1">
-      <c r="A36" s="126"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="154" t="s">
+      <c r="H36" s="118">
+        <v>0</v>
+      </c>
+      <c r="R36" s="153"/>
+    </row>
+    <row r="37" spans="1:18" ht="16" thickBot="1">
+      <c r="A37" s="114"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="141" t="s">
         <v>101</v>
       </c>
-      <c r="H36" s="130">
-        <v>0</v>
-      </c>
-      <c r="R36" s="166"/>
-    </row>
-    <row r="37" spans="1:18" ht="16" thickBot="1">
-      <c r="A37" s="126"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="154" t="s">
+      <c r="H37" s="118">
+        <v>2835000</v>
+      </c>
+      <c r="R37" s="153"/>
+    </row>
+    <row r="38" spans="1:18" ht="16" thickBot="1">
+      <c r="A38" s="114"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="141" t="s">
         <v>102</v>
       </c>
-      <c r="H37" s="130">
-        <v>2835000</v>
-      </c>
-      <c r="R37" s="166"/>
-    </row>
-    <row r="38" spans="1:18" ht="16" thickBot="1">
-      <c r="A38" s="126"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="154" t="s">
+      <c r="H38" s="118">
+        <v>534600</v>
+      </c>
+      <c r="R38" s="153"/>
+    </row>
+    <row r="39" spans="1:18" ht="16" thickBot="1">
+      <c r="A39" s="114"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="141" t="s">
         <v>103</v>
       </c>
-      <c r="H38" s="130">
-        <v>534600</v>
-      </c>
-      <c r="R38" s="166"/>
-    </row>
-    <row r="39" spans="1:18" ht="16" thickBot="1">
-      <c r="A39" s="126"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="154" t="s">
-        <v>104</v>
-      </c>
-      <c r="H39" s="130">
+      <c r="H39" s="118">
         <v>354600</v>
       </c>
-      <c r="R39" s="166"/>
+      <c r="R39" s="153"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5123,14 +5159,14 @@
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="60"/>
-      <c r="C7" s="146" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="131" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="131" t="s">
-        <v>63</v>
+      <c r="C7" s="134" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="119" t="s">
+        <v>62</v>
       </c>
       <c r="F7" s="56">
         <v>2015</v>
@@ -5142,16 +5178,16 @@
         <v>42328</v>
       </c>
       <c r="I7" s="100" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="60"/>
-      <c r="C8" s="126" t="s">
-        <v>67</v>
+      <c r="C8" s="114" t="s">
+        <v>66</v>
       </c>
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
@@ -5163,8 +5199,8 @@
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="60"/>
-      <c r="C9" s="146" t="s">
-        <v>114</v>
+      <c r="C9" s="134" t="s">
+        <v>113</v>
       </c>
       <c r="D9" s="108"/>
       <c r="E9" s="108"/>
@@ -5186,13 +5222,13 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="60"/>
-      <c r="C11" s="146" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="131" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="131" t="s">
+      <c r="C11" s="134" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="119" t="s">
         <v>53</v>
       </c>
       <c r="F11" s="56">
@@ -5205,16 +5241,16 @@
         <v>42328</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="J11" s="131" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="J11" s="119" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="60"/>
-      <c r="C12" s="147" t="s">
-        <v>81</v>
+      <c r="C12" s="135" t="s">
+        <v>80</v>
       </c>
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
@@ -5226,7 +5262,7 @@
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="60"/>
-      <c r="C13" s="147"/>
+      <c r="C13" s="135"/>
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
@@ -5237,11 +5273,11 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="60"/>
-      <c r="C14" s="126" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="158" t="s">
-        <v>155</v>
+      <c r="C14" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="145" t="s">
+        <v>151</v>
       </c>
       <c r="E14" s="108"/>
       <c r="F14" s="56">
@@ -5253,11 +5289,11 @@
       <c r="H14" s="103">
         <v>42328</v>
       </c>
-      <c r="I14" s="131" t="s">
+      <c r="I14" s="119" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="98" t="s">
         <v>158</v>
-      </c>
-      <c r="J14" s="98" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -5266,19 +5302,19 @@
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
       <c r="H15" s="103"/>
-      <c r="I15" s="131"/>
+      <c r="I15" s="119"/>
       <c r="J15" s="98"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="60"/>
-      <c r="C16" s="146" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="126" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="131" t="s">
-        <v>63</v>
+      <c r="C16" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="114" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="119" t="s">
+        <v>62</v>
       </c>
       <c r="F16" s="56">
         <v>2015</v>
@@ -5289,35 +5325,35 @@
       <c r="H16" s="103">
         <v>42328</v>
       </c>
-      <c r="I16" s="131" t="s">
-        <v>167</v>
+      <c r="I16" s="119" t="s">
+        <v>163</v>
       </c>
       <c r="J16" s="56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="60"/>
-      <c r="C17" s="126" t="s">
-        <v>116</v>
+      <c r="C17" s="114" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="60"/>
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="114" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="60"/>
-      <c r="C19" s="146" t="s">
-        <v>113</v>
+      <c r="C19" s="134" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="60"/>
-      <c r="C20" s="147" t="s">
-        <v>83</v>
+      <c r="C20" s="135" t="s">
+        <v>82</v>
       </c>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
@@ -5329,8 +5365,8 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="60"/>
-      <c r="C21" s="146" t="s">
-        <v>135</v>
+      <c r="C21" s="134" t="s">
+        <v>134</v>
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
@@ -5367,10 +5403,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:O241"/>
+  <dimension ref="A1:Q276"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5382,8 +5418,10 @@
     <col min="5" max="5" width="13.125" style="67" customWidth="1"/>
     <col min="6" max="6" width="6.125" style="67" customWidth="1"/>
     <col min="7" max="13" width="10.625" style="67"/>
-    <col min="14" max="14" width="7.125" style="67" customWidth="1"/>
-    <col min="15" max="16384" width="10.625" style="67"/>
+    <col min="14" max="14" width="15.75" style="67" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="67"/>
+    <col min="16" max="16" width="54.75" style="67" customWidth="1"/>
+    <col min="17" max="16384" width="10.625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16" thickBot="1"/>
@@ -5409,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="75" t="s">
         <v>25</v>
@@ -5457,9 +5495,6 @@
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="73"/>
-      <c r="C6" s="74" t="s">
-        <v>70</v>
-      </c>
       <c r="D6" s="74"/>
       <c r="G6" s="74"/>
       <c r="H6" s="74"/>
@@ -5473,7 +5508,6 @@
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="73"/>
-      <c r="C7" s="74"/>
       <c r="D7" s="74"/>
       <c r="E7" s="74"/>
       <c r="F7" s="74"/>
@@ -5489,9 +5523,6 @@
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="73"/>
-      <c r="C8" s="74" t="s">
-        <v>73</v>
-      </c>
       <c r="D8" s="74"/>
       <c r="E8" s="74"/>
       <c r="F8" s="74"/>
@@ -5635,7 +5666,9 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
+      <c r="C17" s="74" t="s">
+        <v>69</v>
+      </c>
       <c r="D17" s="74"/>
       <c r="I17" s="74"/>
       <c r="J17" s="74"/>
@@ -5659,7 +5692,9 @@
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
+      <c r="C19" s="74" t="s">
+        <v>72</v>
+      </c>
       <c r="D19" s="74"/>
       <c r="E19" s="74"/>
       <c r="F19" s="74"/>
@@ -5809,13 +5844,13 @@
         <v>156250</v>
       </c>
       <c r="F28" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="74" t="s">
-        <v>72</v>
-      </c>
       <c r="H28" s="74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I28" s="74"/>
       <c r="J28" s="74"/>
@@ -5833,10 +5868,10 @@
         <v>1942</v>
       </c>
       <c r="F29" s="74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G29" s="74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H29" s="74"/>
       <c r="I29" s="74"/>
@@ -5904,7 +5939,7 @@
       </c>
       <c r="F33" s="74"/>
       <c r="G33" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
@@ -5922,7 +5957,7 @@
         <v>1.2276221300697885E-2</v>
       </c>
       <c r="G34" s="67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" s="74"/>
       <c r="I34" s="74"/>
@@ -5958,7 +5993,7 @@
       </c>
       <c r="F36" s="74"/>
       <c r="G36" s="74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H36" s="74"/>
       <c r="I36" s="74"/>
@@ -5989,11 +6024,9 @@
       <c r="B38" s="73"/>
       <c r="C38" s="74"/>
       <c r="D38" s="74"/>
-      <c r="G38" s="149" t="s">
-        <v>140</v>
-      </c>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
+      <c r="G38" s="166"/>
+      <c r="H38" s="166"/>
+      <c r="I38" s="166"/>
       <c r="J38" s="74"/>
       <c r="K38" s="74"/>
       <c r="L38" s="74"/>
@@ -6007,11 +6040,9 @@
       <c r="D39" s="74"/>
       <c r="E39" s="74"/>
       <c r="F39" s="74"/>
-      <c r="G39" s="149" t="s">
-        <v>141</v>
-      </c>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
+      <c r="G39" s="166"/>
+      <c r="H39" s="166"/>
+      <c r="I39" s="166"/>
       <c r="J39" s="74"/>
       <c r="K39" s="74"/>
       <c r="L39" s="74"/>
@@ -6025,11 +6056,9 @@
       <c r="D40" s="74"/>
       <c r="E40" s="74"/>
       <c r="F40" s="74"/>
-      <c r="G40" s="149" t="s">
-        <v>142</v>
-      </c>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
+      <c r="G40" s="166"/>
+      <c r="H40" s="166"/>
+      <c r="I40" s="166"/>
       <c r="J40" s="74"/>
       <c r="K40" s="74"/>
       <c r="L40" s="74"/>
@@ -6043,9 +6072,9 @@
       <c r="D41" s="74"/>
       <c r="E41" s="74"/>
       <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
+      <c r="G41" s="166"/>
+      <c r="H41" s="166"/>
+      <c r="I41" s="166"/>
       <c r="J41" s="74"/>
       <c r="K41" s="74"/>
       <c r="L41" s="74"/>
@@ -6142,7 +6171,7 @@
     <row r="51" spans="2:15">
       <c r="B51" s="73"/>
       <c r="C51" s="67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D51" s="74"/>
       <c r="K51" s="74"/>
@@ -6164,7 +6193,7 @@
     <row r="53" spans="2:15">
       <c r="B53" s="73"/>
       <c r="C53" s="74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D53" s="74"/>
       <c r="K53" s="74"/>
@@ -6227,7 +6256,7 @@
         <v>130000</v>
       </c>
       <c r="F59" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K59" s="74"/>
       <c r="L59" s="74"/>
@@ -6251,7 +6280,7 @@
         <v>8.3750000000000005E-2</v>
       </c>
       <c r="F61" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K61" s="74"/>
       <c r="L61" s="74"/>
@@ -6266,7 +6295,7 @@
         <v>120.1</v>
       </c>
       <c r="F62" s="67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K62" s="74"/>
       <c r="L62" s="74"/>
@@ -6291,7 +6320,7 @@
         <v>1307588.75</v>
       </c>
       <c r="F64" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K64" s="74"/>
       <c r="L64" s="74"/>
@@ -6307,7 +6336,7 @@
         <v>261300</v>
       </c>
       <c r="F65" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K65" s="74"/>
       <c r="L65" s="74"/>
@@ -6323,10 +6352,10 @@
         <v>363.21909722222222</v>
       </c>
       <c r="F66" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="G66" s="67" t="s">
         <v>80</v>
-      </c>
-      <c r="G66" s="67" t="s">
-        <v>81</v>
       </c>
       <c r="K66" s="74"/>
       <c r="L66" s="74"/>
@@ -6362,7 +6391,7 @@
         <v>20</v>
       </c>
       <c r="G69" s="67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K69" s="74"/>
       <c r="L69" s="74"/>
@@ -6429,8 +6458,8 @@
     </row>
     <row r="77" spans="2:15" ht="16">
       <c r="B77" s="73"/>
-      <c r="C77" s="157" t="s">
-        <v>155</v>
+      <c r="C77" s="144" t="s">
+        <v>151</v>
       </c>
       <c r="N77" s="74"/>
       <c r="O77" s="74"/>
@@ -6443,7 +6472,7 @@
     <row r="79" spans="2:15">
       <c r="B79" s="73"/>
       <c r="C79" s="67" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N79" s="74"/>
       <c r="O79" s="74"/>
@@ -6454,7 +6483,7 @@
         <v>7500</v>
       </c>
       <c r="F80" s="67" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="N80" s="74"/>
       <c r="O80" s="74"/>
@@ -6539,110 +6568,174 @@
       <c r="N96" s="74"/>
       <c r="O96" s="74"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:17">
       <c r="B97" s="73"/>
       <c r="N97" s="74"/>
       <c r="O97" s="74"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:17">
       <c r="B98" s="73"/>
       <c r="N98" s="74"/>
       <c r="O98" s="74"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="2:17">
       <c r="B99" s="73"/>
       <c r="N99" s="74"/>
       <c r="O99" s="74"/>
     </row>
-    <row r="100" spans="2:15">
+    <row r="100" spans="2:17">
       <c r="B100" s="73"/>
       <c r="N100" s="74"/>
       <c r="O100" s="74"/>
     </row>
-    <row r="101" spans="2:15">
+    <row r="101" spans="2:17">
       <c r="B101" s="73"/>
       <c r="N101" s="74"/>
       <c r="O101" s="74"/>
     </row>
-    <row r="102" spans="2:15">
+    <row r="102" spans="2:17">
       <c r="B102" s="73"/>
       <c r="N102" s="74"/>
       <c r="O102" s="74"/>
     </row>
-    <row r="103" spans="2:15">
+    <row r="103" spans="2:17">
       <c r="B103" s="73"/>
       <c r="N103" s="74"/>
       <c r="O103" s="74"/>
     </row>
-    <row r="104" spans="2:15">
+    <row r="104" spans="2:17">
       <c r="B104" s="73"/>
       <c r="N104" s="74"/>
       <c r="O104" s="74"/>
     </row>
-    <row r="105" spans="2:15">
+    <row r="105" spans="2:17">
       <c r="B105" s="73"/>
       <c r="N105" s="74"/>
       <c r="O105" s="74"/>
     </row>
-    <row r="106" spans="2:15">
+    <row r="106" spans="2:17">
       <c r="B106" s="73"/>
       <c r="C106" s="67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N106" s="74"/>
       <c r="O106" s="74"/>
     </row>
-    <row r="107" spans="2:15">
+    <row r="107" spans="2:17" ht="16" thickBot="1">
       <c r="B107" s="73"/>
       <c r="C107" s="67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N107" s="74"/>
       <c r="O107" s="74"/>
     </row>
-    <row r="108" spans="2:15">
+    <row r="108" spans="2:17">
       <c r="B108" s="73"/>
       <c r="C108" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="N108" s="74"/>
-      <c r="O108" s="74"/>
-    </row>
-    <row r="109" spans="2:15">
+        <v>127</v>
+      </c>
+      <c r="J108" s="167"/>
+      <c r="K108" s="168"/>
+      <c r="L108" s="168"/>
+      <c r="M108" s="168"/>
+      <c r="N108" s="168"/>
+      <c r="O108" s="168"/>
+      <c r="P108" s="168"/>
+      <c r="Q108" s="169"/>
+    </row>
+    <row r="109" spans="2:17" ht="18">
       <c r="B109" s="73"/>
       <c r="C109" s="74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D109" s="74"/>
-      <c r="N109" s="74"/>
-      <c r="O109" s="74"/>
-    </row>
-    <row r="110" spans="2:15">
+      <c r="J109" s="170"/>
+      <c r="K109" s="171" t="s">
+        <v>54</v>
+      </c>
+      <c r="L109" s="171" t="s">
+        <v>8</v>
+      </c>
+      <c r="M109" s="171" t="s">
+        <v>4</v>
+      </c>
+      <c r="N109" s="171" t="s">
+        <v>7</v>
+      </c>
+      <c r="O109" s="171" t="s">
+        <v>55</v>
+      </c>
+      <c r="P109" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="172"/>
+    </row>
+    <row r="110" spans="2:17" ht="19" thickBot="1">
       <c r="B110" s="73"/>
       <c r="C110" s="74"/>
-      <c r="N110" s="74"/>
-      <c r="O110" s="74"/>
-    </row>
-    <row r="111" spans="2:15">
+      <c r="J110" s="173"/>
+      <c r="K110" s="174"/>
+      <c r="L110" s="174"/>
+      <c r="M110" s="174"/>
+      <c r="N110" s="174"/>
+      <c r="O110" s="174"/>
+      <c r="P110" s="174"/>
+      <c r="Q110" s="175"/>
+    </row>
+    <row r="111" spans="2:17" ht="19" thickBot="1">
       <c r="B111" s="73"/>
       <c r="C111" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="N111" s="74"/>
-      <c r="O111" s="74"/>
-    </row>
-    <row r="112" spans="2:15">
+        <v>129</v>
+      </c>
+      <c r="E111" s="182">
+        <f>M111</f>
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="F111" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="G111" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="J111" s="173"/>
+      <c r="K111" s="153" t="s">
+        <v>56</v>
+      </c>
+      <c r="L111" s="153" t="s">
+        <v>57</v>
+      </c>
+      <c r="M111" s="176">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="N111" s="153" t="s">
+        <v>58</v>
+      </c>
+      <c r="O111" s="177">
+        <v>42221</v>
+      </c>
+      <c r="P111" s="178" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q111" s="175"/>
+    </row>
+    <row r="112" spans="2:17" ht="16" thickBot="1">
       <c r="B112" s="73"/>
       <c r="C112" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="N112" s="74"/>
-      <c r="O112" s="74"/>
+        <v>130</v>
+      </c>
+      <c r="J112" s="179"/>
+      <c r="K112" s="180"/>
+      <c r="L112" s="180"/>
+      <c r="M112" s="180"/>
+      <c r="N112" s="180"/>
+      <c r="O112" s="180"/>
+      <c r="P112" s="180"/>
+      <c r="Q112" s="181"/>
     </row>
     <row r="113" spans="2:15">
       <c r="B113" s="73"/>
       <c r="C113" s="67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N113" s="74"/>
       <c r="O113" s="74"/>
@@ -6650,32 +6743,22 @@
     <row r="114" spans="2:15">
       <c r="B114" s="73"/>
       <c r="C114" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="F114" s="152"/>
+        <v>132</v>
+      </c>
+      <c r="F114" s="139"/>
       <c r="N114" s="74"/>
       <c r="O114" s="74"/>
     </row>
     <row r="115" spans="2:15">
       <c r="B115" s="73"/>
       <c r="C115" s="67" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N115" s="74"/>
       <c r="O115" s="74"/>
     </row>
     <row r="116" spans="2:15">
       <c r="B116" s="73"/>
-      <c r="E116" s="67">
-        <f>Exchange_rates!E9</f>
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="F116" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="G116" s="67" t="s">
-        <v>146</v>
-      </c>
       <c r="N116" s="74"/>
       <c r="O116" s="74"/>
     </row>
@@ -6726,14 +6809,14 @@
     <row r="126" spans="2:15">
       <c r="B126" s="73"/>
       <c r="C126" s="74"/>
-      <c r="E126" s="153">
+      <c r="E126" s="140">
         <v>90</v>
       </c>
       <c r="F126" s="67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G126" s="67" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="2:15">
@@ -6743,7 +6826,7 @@
         <v>0.9</v>
       </c>
       <c r="G127" s="67" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="2:15">
@@ -6753,7 +6836,7 @@
         <v>7500</v>
       </c>
       <c r="F128" s="67" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="129" spans="2:7">
@@ -6777,10 +6860,10 @@
         <v>40</v>
       </c>
       <c r="F134" s="67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G134" s="67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="2:7">
@@ -6789,10 +6872,10 @@
         <v>3</v>
       </c>
       <c r="F135" s="67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G135" s="67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="136" spans="2:7">
@@ -6828,10 +6911,10 @@
         <v>10</v>
       </c>
       <c r="F145" s="67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G145" s="67" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146" spans="2:7">
@@ -6841,7 +6924,7 @@
         <v>0.1</v>
       </c>
       <c r="G146" s="67" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="147" spans="2:7">
@@ -6865,30 +6948,84 @@
     <row r="153" spans="2:7">
       <c r="B153" s="73"/>
     </row>
-    <row r="171" spans="5:7">
+    <row r="154" spans="2:7">
+      <c r="B154" s="73"/>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" s="73"/>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" s="73"/>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" s="73"/>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" s="73"/>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" s="73"/>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" s="73"/>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161" s="73"/>
+    </row>
+    <row r="162" spans="2:7">
+      <c r="B162" s="73"/>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="B163" s="73"/>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="B164" s="73"/>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165" s="73"/>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166" s="73"/>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167" s="73"/>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168" s="73"/>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="B169" s="73"/>
+    </row>
+    <row r="170" spans="2:7">
+      <c r="B170" s="73"/>
+    </row>
+    <row r="171" spans="2:7">
+      <c r="B171" s="73"/>
       <c r="E171" s="67">
         <v>149865595</v>
       </c>
       <c r="F171" s="67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G171" s="67" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="172" spans="5:7">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7">
+      <c r="B172" s="73"/>
       <c r="E172" s="67">
-        <f>E171/E116</f>
+        <f>E171/E111</f>
         <v>136489612.93260473</v>
       </c>
       <c r="F172" s="67" t="s">
         <v>20</v>
       </c>
       <c r="G172" s="67" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="173" spans="5:7">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7">
+      <c r="B173" s="73"/>
       <c r="E173" s="67">
         <f>E172*E146</f>
         <v>13648961.293260474</v>
@@ -6897,142 +7034,525 @@
         <v>20</v>
       </c>
       <c r="G173" s="67" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="177" spans="5:7">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7">
+      <c r="B174" s="73"/>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="B175" s="73"/>
+    </row>
+    <row r="176" spans="2:7">
+      <c r="B176" s="73"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="B177" s="73"/>
       <c r="E177" s="67">
         <v>7.9952892230000003</v>
       </c>
       <c r="F177" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G177" s="67" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="178" spans="5:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="B178" s="73"/>
       <c r="E178" s="67">
         <f>E177*0.00404686</f>
         <v>3.235581614498978E-2</v>
       </c>
       <c r="F178" s="67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G178" s="67" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="183" spans="5:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="166"/>
+      <c r="B179" s="183"/>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="166"/>
+      <c r="B180" s="183"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="166"/>
+      <c r="B181" s="183"/>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="166"/>
+      <c r="B182" s="183"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="166"/>
+      <c r="B183" s="183"/>
       <c r="E183" s="67">
         <v>150280948</v>
       </c>
       <c r="F183" s="67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G183" s="67" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="184" spans="5:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="166"/>
+      <c r="B184" s="183"/>
       <c r="E184" s="67">
-        <f>E183/E116</f>
+        <f>E183/E111</f>
         <v>136867894.35336974</v>
       </c>
       <c r="F184" s="67" t="s">
         <v>20</v>
       </c>
       <c r="G184" s="67" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="204" spans="5:7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="166"/>
+      <c r="B185" s="183"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="166"/>
+      <c r="B186" s="183"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="166"/>
+      <c r="B187" s="183"/>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="166"/>
+      <c r="B188" s="183"/>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="166"/>
+      <c r="B189" s="183"/>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="166"/>
+      <c r="B190" s="183"/>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="166"/>
+      <c r="B191" s="183"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="166"/>
+      <c r="B192" s="183"/>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="166"/>
+      <c r="B193" s="183"/>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="166"/>
+      <c r="B194" s="183"/>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="166"/>
+      <c r="B195" s="183"/>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="166"/>
+      <c r="B196" s="183"/>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="166"/>
+      <c r="B197" s="183"/>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="166"/>
+      <c r="B198" s="183"/>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="166"/>
+      <c r="B199" s="183"/>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="166"/>
+      <c r="B200" s="183"/>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="166"/>
+      <c r="B201" s="183"/>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="166"/>
+      <c r="B202" s="183"/>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="166"/>
+      <c r="B203" s="183"/>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="166"/>
+      <c r="B204" s="183"/>
       <c r="E204" s="67">
         <v>2907879</v>
       </c>
       <c r="F204" s="67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G204" s="67" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="205" spans="5:7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="166"/>
+      <c r="B205" s="183"/>
       <c r="E205" s="67">
-        <f>E204/E116</f>
+        <f>E204/E111</f>
         <v>2648341.5300546447</v>
       </c>
       <c r="F205" s="67" t="s">
         <v>52</v>
       </c>
       <c r="G205" s="67" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="234" spans="5:7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="166"/>
+      <c r="B206" s="183"/>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="166"/>
+      <c r="B207" s="183"/>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="166"/>
+      <c r="B208" s="183"/>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="166"/>
+      <c r="B209" s="183"/>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="166"/>
+      <c r="B210" s="183"/>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="166"/>
+      <c r="B211" s="183"/>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="166"/>
+      <c r="B212" s="183"/>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="166"/>
+      <c r="B213" s="183"/>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="166"/>
+      <c r="B214" s="183"/>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="166"/>
+      <c r="B215" s="183"/>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="166"/>
+      <c r="B216" s="183"/>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="166"/>
+      <c r="B217" s="183"/>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="166"/>
+      <c r="B218" s="183"/>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="166"/>
+      <c r="B219" s="183"/>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="166"/>
+      <c r="B220" s="183"/>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="166"/>
+      <c r="B221" s="183"/>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="166"/>
+      <c r="B222" s="183"/>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="166"/>
+      <c r="B223" s="183"/>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="166"/>
+      <c r="B224" s="183"/>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="166"/>
+      <c r="B225" s="183"/>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="166"/>
+      <c r="B226" s="183"/>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="166"/>
+      <c r="B227" s="183"/>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" s="166"/>
+      <c r="B228" s="183"/>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="166"/>
+      <c r="B229" s="183"/>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="166"/>
+      <c r="B230" s="183"/>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" s="166"/>
+      <c r="B231" s="183"/>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="166"/>
+      <c r="B232" s="183"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="166"/>
+      <c r="B233" s="183"/>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="166"/>
+      <c r="B234" s="183"/>
       <c r="E234" s="67">
         <f>2267513+16075</f>
         <v>2283588</v>
       </c>
       <c r="F234" s="67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G234" s="67" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="235" spans="5:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="166"/>
+      <c r="B235" s="183"/>
       <c r="E235" s="67">
-        <f>E234/E116</f>
+        <f>E234/E111</f>
         <v>2079770.4918032784</v>
       </c>
       <c r="F235" s="67" t="s">
         <v>52</v>
       </c>
       <c r="G235" s="67" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="236" spans="5:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="166"/>
+      <c r="B236" s="183"/>
       <c r="G236" s="67" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="239" spans="5:7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="166"/>
+      <c r="B237" s="183"/>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="166"/>
+      <c r="B238" s="183"/>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="166"/>
+      <c r="B239" s="183"/>
       <c r="E239" s="67">
         <f>E66*60*60*E128</f>
         <v>9806915625</v>
       </c>
       <c r="F239" s="67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G239" s="67" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="240" spans="5:7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="166"/>
+      <c r="B240" s="183"/>
       <c r="E240" s="67">
         <f>E235/E239</f>
         <v>2.120718247541034E-4</v>
       </c>
       <c r="F240" s="67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G240" s="67" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="241" spans="5:7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="166"/>
+      <c r="B241" s="183"/>
       <c r="E241" s="67">
         <f>E235/E128</f>
         <v>277.30273224043714</v>
       </c>
       <c r="F241" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G241" s="67" t="s">
-        <v>154</v>
-      </c>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="166"/>
+      <c r="B242" s="183"/>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="166"/>
+      <c r="B243" s="183"/>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="166"/>
+      <c r="B244" s="183"/>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="166"/>
+      <c r="B245" s="183"/>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="166"/>
+      <c r="B246" s="183"/>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="166"/>
+      <c r="B247" s="183"/>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="166"/>
+      <c r="B248" s="183"/>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="166"/>
+      <c r="B249" s="183"/>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="166"/>
+      <c r="B250" s="183"/>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="166"/>
+      <c r="B251" s="183"/>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="166"/>
+      <c r="B252" s="183"/>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="166"/>
+      <c r="B253" s="183"/>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="166"/>
+      <c r="B254" s="183"/>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="166"/>
+      <c r="B255" s="183"/>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="166"/>
+      <c r="B256" s="183"/>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="166"/>
+      <c r="B257" s="183"/>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="166"/>
+      <c r="B258" s="183"/>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="166"/>
+      <c r="B259" s="183"/>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="166"/>
+      <c r="B260" s="183"/>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="166"/>
+      <c r="B261" s="183"/>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="166"/>
+      <c r="B262" s="183"/>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="166"/>
+      <c r="B263" s="183"/>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="166"/>
+      <c r="B264" s="183"/>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="166"/>
+      <c r="B265" s="183"/>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="166"/>
+      <c r="B266" s="183"/>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="166"/>
+      <c r="B267" s="183"/>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="166"/>
+      <c r="B268" s="183"/>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="166"/>
+      <c r="B269" s="183"/>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="166"/>
+      <c r="B270" s="183"/>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="166"/>
+      <c r="B271" s="183"/>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="166"/>
+      <c r="B272" s="183"/>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="166"/>
+      <c r="B273" s="183"/>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="166"/>
+      <c r="B274" s="183"/>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="166"/>
+      <c r="B275" s="183"/>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="166"/>
+      <c r="B276" s="183"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7044,152 +7564,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="47.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="109"/>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="109"/>
-      <c r="B2" s="179" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="109"/>
-      <c r="B3" s="182"/>
-      <c r="C3" s="183"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="109"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="190"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-    </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1">
-      <c r="A5" s="109"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="109"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="111"/>
-    </row>
-    <row r="7" spans="1:9" ht="18">
-      <c r="A7" s="112"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="115"/>
-    </row>
-    <row r="8" spans="1:9" ht="19" thickBot="1">
-      <c r="B8" s="25"/>
-      <c r="I8" s="116"/>
-    </row>
-    <row r="9" spans="1:9" ht="19" thickBot="1">
-      <c r="A9" s="112"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="117" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="118">
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="F9" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="119">
-        <v>42221</v>
-      </c>
-      <c r="H9" s="120" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="116"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:E4"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_steam_methane_reformer_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_steam_methane_reformer_hydrogen.converter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="184">
   <si>
     <t>Source</t>
   </si>
@@ -413,9 +413,6 @@
   </si>
   <si>
     <t>Rotterdam Climate Initiative</t>
-  </si>
-  <si>
-    <t>Hydrogen output capacity</t>
   </si>
   <si>
     <t>input share of electricity</t>
@@ -666,6 +663,12 @@
   </si>
   <si>
     <t>energy_steam_methane_reformer_hydrogen.converter</t>
+  </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical input capacity </t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1241,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="440">
+  <cellStyleXfs count="443">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1682,8 +1685,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1969,8 +1975,9 @@
     <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="440">
+  <cellStyles count="443">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2320,6 +2327,9 @@
     <cellStyle name="Followed Hyperlink" xfId="437" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="439" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3317,7 +3327,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3470,8 +3480,8 @@
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3604,7 +3614,7 @@
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="113" t="s">
@@ -3625,7 +3635,7 @@
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="110" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="113" t="s">
@@ -3661,19 +3671,19 @@
     <row r="15" spans="1:11" ht="16" thickBot="1">
       <c r="A15" s="114"/>
       <c r="B15" s="115"/>
-      <c r="C15" s="110" t="s">
-        <v>80</v>
+      <c r="C15" s="193" t="s">
+        <v>182</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>79</v>
       </c>
       <c r="E15" s="107">
         <f>'Research data'!H10</f>
-        <v>363.21909722222222</v>
+        <v>504.47096836419752</v>
       </c>
       <c r="F15" s="110"/>
-      <c r="G15" s="110" t="s">
-        <v>118</v>
+      <c r="G15" s="193" t="s">
+        <v>183</v>
       </c>
       <c r="H15" s="110"/>
       <c r="I15" s="113" t="s">
@@ -3686,7 +3696,7 @@
       <c r="A16" s="114"/>
       <c r="B16" s="115"/>
       <c r="C16" s="152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="107">
@@ -3697,7 +3707,7 @@
       <c r="G16" s="110"/>
       <c r="H16" s="110"/>
       <c r="I16" s="154" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J16" s="117"/>
       <c r="K16" s="36"/>
@@ -3718,7 +3728,7 @@
       <c r="G17" s="110"/>
       <c r="H17" s="110"/>
       <c r="I17" s="113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J17" s="117"/>
     </row>
@@ -3799,21 +3809,21 @@
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="156" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J22" s="94"/>
     </row>
     <row r="23" spans="1:10" ht="16" thickBot="1">
       <c r="B23" s="146"/>
       <c r="C23" s="155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D23" s="148" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E23" s="107">
         <f>'Research data'!H23</f>
@@ -3821,18 +3831,18 @@
       </c>
       <c r="F23" s="149"/>
       <c r="G23" s="147" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H23" s="149"/>
       <c r="I23" s="150" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J23" s="151"/>
     </row>
     <row r="24" spans="1:10" ht="16" thickBot="1">
       <c r="B24" s="146"/>
       <c r="C24" s="155" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D24" s="148"/>
       <c r="E24" s="107">
@@ -3841,18 +3851,18 @@
       </c>
       <c r="F24" s="149"/>
       <c r="G24" s="155" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H24" s="149"/>
       <c r="I24" s="164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J24" s="151"/>
     </row>
     <row r="25" spans="1:10" ht="16" thickBot="1">
       <c r="B25" s="146"/>
       <c r="C25" s="155" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D25" s="148"/>
       <c r="E25" s="107">
@@ -3861,18 +3871,18 @@
       </c>
       <c r="F25" s="149"/>
       <c r="G25" s="155" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H25" s="149"/>
       <c r="I25" s="164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J25" s="151"/>
     </row>
     <row r="26" spans="1:10" ht="16" thickBot="1">
       <c r="B26" s="146"/>
       <c r="C26" s="165" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D26" s="148"/>
       <c r="E26" s="107">
@@ -3881,18 +3891,18 @@
       </c>
       <c r="F26" s="149"/>
       <c r="G26" s="155" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H26" s="149"/>
       <c r="I26" s="150" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J26" s="151"/>
     </row>
     <row r="27" spans="1:10" ht="16" thickBot="1">
       <c r="B27" s="146"/>
       <c r="C27" s="155" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D27" s="148"/>
       <c r="E27" s="107">
@@ -3901,11 +3911,11 @@
       </c>
       <c r="F27" s="149"/>
       <c r="G27" s="156" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H27" s="149"/>
       <c r="I27" s="164" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J27" s="151"/>
     </row>
@@ -3991,7 +4001,7 @@
       </c>
       <c r="H32" s="110"/>
       <c r="I32" s="113" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J32" s="117"/>
     </row>
@@ -4014,7 +4024,7 @@
       </c>
       <c r="H33" s="110"/>
       <c r="I33" s="113" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J33" s="117"/>
     </row>
@@ -4037,7 +4047,7 @@
       </c>
       <c r="H34" s="110"/>
       <c r="I34" s="113" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J34" s="117"/>
     </row>
@@ -4225,7 +4235,7 @@
   <dimension ref="A2:U39"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4301,11 +4311,11 @@
       </c>
       <c r="M4" s="91"/>
       <c r="N4" s="91" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O4" s="91"/>
       <c r="P4" s="91" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="91"/>
       <c r="R4" s="91" t="s">
@@ -4434,8 +4444,8 @@
     </row>
     <row r="10" spans="1:21" ht="16" thickBot="1">
       <c r="B10" s="45"/>
-      <c r="C10" s="112" t="s">
-        <v>80</v>
+      <c r="C10" s="193" t="s">
+        <v>182</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
@@ -4445,14 +4455,14 @@
       <c r="G10" s="92"/>
       <c r="H10" s="106">
         <f>L10</f>
-        <v>363.21909722222222</v>
+        <v>504.47096836419752</v>
       </c>
       <c r="I10" s="48"/>
       <c r="J10" s="111"/>
       <c r="K10" s="48"/>
       <c r="L10" s="106">
-        <f>Notes!E66</f>
-        <v>363.21909722222222</v>
+        <f>Notes!E67</f>
+        <v>504.47096836419752</v>
       </c>
       <c r="M10" s="48"/>
       <c r="N10" s="54"/>
@@ -4496,12 +4506,12 @@
       <c r="A12" s="114"/>
       <c r="B12" s="115"/>
       <c r="C12" s="152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="112"/>
       <c r="E12" s="112"/>
       <c r="F12" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H12" s="116">
         <f>P12</f>
@@ -4648,15 +4658,13 @@
         <v>20</v>
       </c>
       <c r="H19" s="127">
-        <f>N19</f>
+        <f>L19</f>
         <v>160000000</v>
       </c>
       <c r="I19" s="128"/>
       <c r="J19" s="128"/>
       <c r="K19" s="128"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="132">
+      <c r="L19" s="132">
         <f>Notes!E69</f>
         <v>160000000</v>
       </c>
@@ -4684,7 +4692,7 @@
         <v>2648341.5300546447</v>
       </c>
       <c r="R20" s="136" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="16" thickBot="1">
@@ -4708,7 +4716,7 @@
         <v>2079770.4918032784</v>
       </c>
       <c r="R21" s="136" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="16" thickBot="1">
@@ -4732,7 +4740,7 @@
         <v>2.120718247541034E-4</v>
       </c>
       <c r="R22" s="136" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="16" thickBot="1">
@@ -4756,14 +4764,14 @@
         <v>277.30273224043714</v>
       </c>
       <c r="R23" s="136" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="16" thickBot="1">
       <c r="A24" s="158"/>
       <c r="B24" s="159"/>
       <c r="C24" s="157" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D24" s="158"/>
       <c r="E24" s="158"/>
@@ -4785,14 +4793,14 @@
       <c r="O24" s="162"/>
       <c r="Q24" s="158"/>
       <c r="R24" s="162" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="16" thickBot="1">
       <c r="A25" s="158"/>
       <c r="B25" s="159"/>
       <c r="C25" s="157" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D25" s="158"/>
       <c r="E25" s="158"/>
@@ -4815,14 +4823,14 @@
       <c r="O25" s="158"/>
       <c r="Q25" s="158"/>
       <c r="R25" s="162" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="16" thickBot="1">
       <c r="A26" s="114"/>
       <c r="B26" s="115"/>
       <c r="C26" s="157" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F26" s="157" t="s">
         <v>20</v>
@@ -4846,12 +4854,12 @@
       <c r="A27" s="158"/>
       <c r="B27" s="159"/>
       <c r="C27" s="163" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D27" s="158"/>
       <c r="E27" s="158"/>
       <c r="F27" s="157" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G27" s="158"/>
       <c r="H27" s="160">
@@ -4868,7 +4876,7 @@
       <c r="O27" s="158"/>
       <c r="Q27" s="158"/>
       <c r="R27" s="153" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -4977,7 +4985,7 @@
       <c r="P33" s="46"/>
       <c r="Q33" s="46"/>
       <c r="R33" s="136" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="16" thickBot="1">
@@ -5178,10 +5186,10 @@
         <v>42328</v>
       </c>
       <c r="I7" s="100" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:10">
@@ -5241,10 +5249,10 @@
         <v>42328</v>
       </c>
       <c r="I11" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="J11" s="119" t="s">
         <v>143</v>
-      </c>
-      <c r="J11" s="119" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -5274,10 +5282,10 @@
     <row r="14" spans="2:10">
       <c r="B14" s="60"/>
       <c r="C14" s="114" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="145" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14" s="108"/>
       <c r="F14" s="56">
@@ -5290,10 +5298,10 @@
         <v>42328</v>
       </c>
       <c r="I14" s="119" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J14" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="2:10">
@@ -5311,7 +5319,7 @@
         <v>114</v>
       </c>
       <c r="D16" s="114" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="119" t="s">
         <v>62</v>
@@ -5326,10 +5334,10 @@
         <v>42328</v>
       </c>
       <c r="I16" s="119" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J16" s="56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -5366,7 +5374,7 @@
     <row r="21" spans="2:10">
       <c r="B21" s="60"/>
       <c r="C21" s="134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
@@ -5405,8 +5413,8 @@
   </sheetPr>
   <dimension ref="A1:Q276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6366,6 +6374,16 @@
     <row r="67" spans="2:15">
       <c r="B67" s="73"/>
       <c r="C67" s="74"/>
+      <c r="E67" s="67">
+        <f>E66/E36</f>
+        <v>504.47096836419752</v>
+      </c>
+      <c r="F67" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="G67" s="67" t="s">
+        <v>182</v>
+      </c>
       <c r="K67" s="74"/>
       <c r="L67" s="74"/>
       <c r="M67" s="74"/>
@@ -6459,7 +6477,7 @@
     <row r="77" spans="2:15" ht="16">
       <c r="B77" s="73"/>
       <c r="C77" s="144" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N77" s="74"/>
       <c r="O77" s="74"/>
@@ -6472,7 +6490,7 @@
     <row r="79" spans="2:15">
       <c r="B79" s="73"/>
       <c r="C79" s="67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N79" s="74"/>
       <c r="O79" s="74"/>
@@ -6483,7 +6501,7 @@
         <v>7500</v>
       </c>
       <c r="F80" s="67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N80" s="74"/>
       <c r="O80" s="74"/>
@@ -6624,7 +6642,7 @@
     <row r="107" spans="2:17" ht="16" thickBot="1">
       <c r="B107" s="73"/>
       <c r="C107" s="67" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N107" s="74"/>
       <c r="O107" s="74"/>
@@ -6632,7 +6650,7 @@
     <row r="108" spans="2:17">
       <c r="B108" s="73"/>
       <c r="C108" s="74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J108" s="167"/>
       <c r="K108" s="168"/>
@@ -6646,7 +6664,7 @@
     <row r="109" spans="2:17" ht="18">
       <c r="B109" s="73"/>
       <c r="C109" s="74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D109" s="74"/>
       <c r="J109" s="170"/>
@@ -6685,7 +6703,7 @@
     <row r="111" spans="2:17" ht="19" thickBot="1">
       <c r="B111" s="73"/>
       <c r="C111" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E111" s="182">
         <f>M111</f>
@@ -6695,7 +6713,7 @@
         <v>83</v>
       </c>
       <c r="G111" s="67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J111" s="173"/>
       <c r="K111" s="153" t="s">
@@ -6721,7 +6739,7 @@
     <row r="112" spans="2:17" ht="16" thickBot="1">
       <c r="B112" s="73"/>
       <c r="C112" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J112" s="179"/>
       <c r="K112" s="180"/>
@@ -6735,7 +6753,7 @@
     <row r="113" spans="2:15">
       <c r="B113" s="73"/>
       <c r="C113" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N113" s="74"/>
       <c r="O113" s="74"/>
@@ -6743,7 +6761,7 @@
     <row r="114" spans="2:15">
       <c r="B114" s="73"/>
       <c r="C114" s="67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F114" s="139"/>
       <c r="N114" s="74"/>
@@ -6752,7 +6770,7 @@
     <row r="115" spans="2:15">
       <c r="B115" s="73"/>
       <c r="C115" s="67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N115" s="74"/>
       <c r="O115" s="74"/>
@@ -6816,7 +6834,7 @@
         <v>90</v>
       </c>
       <c r="G126" s="67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="2:15">
@@ -6826,7 +6844,7 @@
         <v>0.9</v>
       </c>
       <c r="G127" s="67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="2:15">
@@ -6836,7 +6854,7 @@
         <v>7500</v>
       </c>
       <c r="F128" s="67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="2:7">
@@ -6860,10 +6878,10 @@
         <v>40</v>
       </c>
       <c r="F134" s="67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G134" s="67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" spans="2:7">
@@ -6872,7 +6890,7 @@
         <v>3</v>
       </c>
       <c r="F135" s="67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G135" s="67" t="s">
         <v>115</v>
@@ -6914,7 +6932,7 @@
         <v>90</v>
       </c>
       <c r="G145" s="67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="146" spans="2:7">
@@ -6924,7 +6942,7 @@
         <v>0.1</v>
       </c>
       <c r="G146" s="67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="147" spans="2:7">
@@ -7005,10 +7023,10 @@
         <v>149865595</v>
       </c>
       <c r="F171" s="67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G171" s="67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="172" spans="2:7">
@@ -7021,7 +7039,7 @@
         <v>20</v>
       </c>
       <c r="G172" s="67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="173" spans="2:7">
@@ -7034,7 +7052,7 @@
         <v>20</v>
       </c>
       <c r="G173" s="67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="174" spans="2:7">
@@ -7052,7 +7070,7 @@
         <v>7.9952892230000003</v>
       </c>
       <c r="F177" s="67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G177" s="67" t="s">
         <v>114</v>
@@ -7094,7 +7112,7 @@
         <v>150280948</v>
       </c>
       <c r="F183" s="67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G183" s="67" t="s">
         <v>112</v>
@@ -7200,7 +7218,7 @@
         <v>61</v>
       </c>
       <c r="G204" s="67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -7214,7 +7232,7 @@
         <v>52</v>
       </c>
       <c r="G205" s="67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -7340,7 +7358,7 @@
         <v>61</v>
       </c>
       <c r="G234" s="67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7354,14 +7372,14 @@
         <v>52</v>
       </c>
       <c r="G235" s="67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="166"/>
       <c r="B236" s="183"/>
       <c r="G236" s="67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -7383,7 +7401,7 @@
         <v>60</v>
       </c>
       <c r="G239" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -7397,7 +7415,7 @@
         <v>63</v>
       </c>
       <c r="G240" s="67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7411,7 +7429,7 @@
         <v>88</v>
       </c>
       <c r="G241" s="67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="242" spans="1:7">

--- a/nodes_source_analyses/energy/energy_steam_methane_reformer_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/energy/energy_steam_methane_reformer_hydrogen.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27940" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,8 +42,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -182,9 +190,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Comments</t>
@@ -670,6 +675,10 @@
   <si>
     <t xml:space="preserve">Typical input capacity </t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -684,7 +693,7 @@
     <numFmt numFmtId="169" formatCode="0.00000"/>
     <numFmt numFmtId="170" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -872,11 +881,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1520,7 +1524,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1753,7 +1757,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1785,20 +1789,20 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1818,13 +1822,13 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1897,8 +1901,8 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1906,8 +1910,8 @@
     <xf numFmtId="167" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="18" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1915,7 +1919,7 @@
     <xf numFmtId="166" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1930,52 +1934,52 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="31" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="30" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="443">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2432,77 +2436,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2792,7 +2726,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2905,7 +2839,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Title"/>
@@ -3296,50 +3230,50 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="22" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="22"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="29" customFormat="1">
+    <row r="1" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -3348,29 +3282,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="76" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="77"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="78"/>
       <c r="C10" s="79"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="78" t="s">
         <v>27</v>
@@ -3379,33 +3313,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="78"/>
       <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="78"/>
       <c r="C13" s="81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="78"/>
       <c r="C14" s="79" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="78"/>
       <c r="C15" s="79"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="78" t="s">
         <v>32</v>
@@ -3414,49 +3348,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="78"/>
       <c r="C17" s="83" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="78"/>
       <c r="C18" s="84" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="78"/>
       <c r="C19" s="85" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="86"/>
       <c r="C20" s="87" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="86"/>
       <c r="C21" s="88" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="86"/>
       <c r="C22" s="89" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="86"/>
       <c r="C23" s="90" t="s">
         <v>40</v>
@@ -3465,88 +3399,83 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="37.875" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="1:11">
-      <c r="B2" s="184" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="186"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="185" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="187"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="B3" s="187"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="189"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="188"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="190"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="B4" s="187"/>
-      <c r="C4" s="188"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="188"/>
+      <c r="C4" s="189"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="190"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="190"/>
-      <c r="C5" s="191"/>
-      <c r="D5" s="191"/>
-      <c r="E5" s="192"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="191"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="193"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="7" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="37"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -3557,7 +3486,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:11" s="26" customFormat="1">
+    <row r="9" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="24"/>
       <c r="C9" s="16" t="s">
         <v>19</v>
@@ -3578,7 +3507,7 @@
       </c>
       <c r="J9" s="93"/>
     </row>
-    <row r="10" spans="1:11" s="26" customFormat="1">
+    <row r="10" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="25"/>
       <c r="C10" s="13"/>
       <c r="D10" s="33"/>
@@ -3589,7 +3518,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:11" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25"/>
       <c r="C11" s="13" t="s">
         <v>44</v>
@@ -3602,10 +3531,10 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:11" s="26" customFormat="1" ht="16" thickBot="1">
+    <row r="12" spans="1:11" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
       <c r="C12" s="110" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="107">
@@ -3614,19 +3543,19 @@
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="110" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="113" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:11" ht="16" thickBot="1">
+    <row r="13" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="25"/>
       <c r="C13" s="110" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="107">
@@ -3635,20 +3564,20 @@
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="113" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
+    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="25"/>
       <c r="C14" s="110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>2</v>
@@ -3659,44 +3588,44 @@
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="110" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="113" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="26"/>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1">
+    <row r="15" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="114"/>
       <c r="B15" s="115"/>
-      <c r="C15" s="193" t="s">
-        <v>182</v>
+      <c r="C15" s="184" t="s">
+        <v>181</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="107">
         <f>'Research data'!H10</f>
         <v>504.47096836419752</v>
       </c>
       <c r="F15" s="110"/>
-      <c r="G15" s="193" t="s">
-        <v>183</v>
+      <c r="G15" s="184" t="s">
+        <v>182</v>
       </c>
       <c r="H15" s="110"/>
       <c r="I15" s="113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J15" s="117"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="114"/>
       <c r="B16" s="115"/>
       <c r="C16" s="152" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="107">
@@ -3707,15 +3636,15 @@
       <c r="G16" s="110"/>
       <c r="H16" s="110"/>
       <c r="I16" s="154" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J16" s="117"/>
       <c r="K16" s="36"/>
     </row>
-    <row r="17" spans="1:10" ht="16" thickBot="1">
+    <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="115"/>
       <c r="C17" s="110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>2</v>
@@ -3728,14 +3657,14 @@
       <c r="G17" s="110"/>
       <c r="H17" s="110"/>
       <c r="I17" s="113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J17" s="117"/>
     </row>
-    <row r="18" spans="1:10" ht="16" thickBot="1">
+    <row r="18" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="115"/>
       <c r="C18" s="110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>2</v>
@@ -3749,7 +3678,7 @@
       <c r="I18" s="113"/>
       <c r="J18" s="117"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="40"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
@@ -3760,7 +3689,7 @@
       <c r="I19" s="36"/>
       <c r="J19" s="94"/>
     </row>
-    <row r="20" spans="1:10" ht="16" thickBot="1">
+    <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="40"/>
       <c r="C20" s="13" t="s">
         <v>43</v>
@@ -3773,7 +3702,7 @@
       <c r="I20" s="36"/>
       <c r="J20" s="94"/>
     </row>
-    <row r="21" spans="1:10" ht="16" thickBot="1">
+    <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="40"/>
       <c r="C21" s="39" t="s">
         <v>22</v>
@@ -3791,17 +3720,17 @@
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J21" s="94"/>
     </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" thickBot="1">
+    <row r="22" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="40"/>
       <c r="C22" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="41">
         <f>'Research data'!H21</f>
@@ -3809,21 +3738,21 @@
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="156" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="113" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J22" s="94"/>
     </row>
-    <row r="23" spans="1:10" ht="16" thickBot="1">
+    <row r="23" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="146"/>
       <c r="C23" s="155" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D23" s="148" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E23" s="107">
         <f>'Research data'!H23</f>
@@ -3831,18 +3760,18 @@
       </c>
       <c r="F23" s="149"/>
       <c r="G23" s="147" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H23" s="149"/>
       <c r="I23" s="150" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J23" s="151"/>
     </row>
-    <row r="24" spans="1:10" ht="16" thickBot="1">
+    <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="146"/>
       <c r="C24" s="155" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" s="148"/>
       <c r="E24" s="107">
@@ -3851,18 +3780,18 @@
       </c>
       <c r="F24" s="149"/>
       <c r="G24" s="155" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H24" s="149"/>
       <c r="I24" s="164" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J24" s="151"/>
     </row>
-    <row r="25" spans="1:10" ht="16" thickBot="1">
+    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="146"/>
       <c r="C25" s="155" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D25" s="148"/>
       <c r="E25" s="107">
@@ -3871,18 +3800,18 @@
       </c>
       <c r="F25" s="149"/>
       <c r="G25" s="155" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H25" s="149"/>
       <c r="I25" s="164" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J25" s="151"/>
     </row>
-    <row r="26" spans="1:10" ht="16" thickBot="1">
+    <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="146"/>
       <c r="C26" s="165" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D26" s="148"/>
       <c r="E26" s="107">
@@ -3891,18 +3820,18 @@
       </c>
       <c r="F26" s="149"/>
       <c r="G26" s="155" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H26" s="149"/>
       <c r="I26" s="150" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J26" s="151"/>
     </row>
-    <row r="27" spans="1:10" ht="16" thickBot="1">
+    <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="146"/>
       <c r="C27" s="155" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D27" s="148"/>
       <c r="E27" s="107">
@@ -3911,42 +3840,42 @@
       </c>
       <c r="F27" s="149"/>
       <c r="G27" s="156" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H27" s="149"/>
       <c r="I27" s="164" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J27" s="151"/>
     </row>
-    <row r="28" spans="1:10" ht="16" thickBot="1">
+    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="114"/>
       <c r="B28" s="115"/>
       <c r="C28" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>89</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>90</v>
       </c>
       <c r="E28" s="118">
         <v>0.1</v>
       </c>
       <c r="F28" s="110"/>
       <c r="G28" s="110" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H28" s="110"/>
       <c r="I28" s="113"/>
       <c r="J28" s="117"/>
     </row>
-    <row r="29" spans="1:10" ht="16" thickBot="1">
+    <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="114"/>
       <c r="B29" s="115"/>
       <c r="C29" s="110" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>92</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>93</v>
       </c>
       <c r="E29" s="118">
         <v>1</v>
@@ -3957,7 +3886,7 @@
       <c r="I29" s="113"/>
       <c r="J29" s="117"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="114"/>
       <c r="B30" s="115"/>
       <c r="C30" s="110"/>
@@ -3969,7 +3898,7 @@
       <c r="I30" s="119"/>
       <c r="J30" s="117"/>
     </row>
-    <row r="31" spans="1:10" ht="16" thickBot="1">
+    <row r="31" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="114"/>
       <c r="B31" s="115"/>
       <c r="C31" s="13" t="s">
@@ -3982,7 +3911,7 @@
       <c r="I31" s="119"/>
       <c r="J31" s="117"/>
     </row>
-    <row r="32" spans="1:10" ht="16" thickBot="1">
+    <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="114"/>
       <c r="B32" s="115"/>
       <c r="C32" s="110" t="s">
@@ -3997,19 +3926,19 @@
       </c>
       <c r="F32" s="110"/>
       <c r="G32" s="110" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H32" s="110"/>
       <c r="I32" s="113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J32" s="117"/>
     </row>
-    <row r="33" spans="1:10" ht="16" thickBot="1">
+    <row r="33" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="114"/>
       <c r="B33" s="115"/>
       <c r="C33" s="110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>1</v>
@@ -4020,22 +3949,22 @@
       </c>
       <c r="F33" s="110"/>
       <c r="G33" s="110" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H33" s="110"/>
       <c r="I33" s="113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J33" s="117"/>
     </row>
-    <row r="34" spans="1:10" ht="16" thickBot="1">
+    <row r="34" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="114"/>
       <c r="B34" s="115"/>
       <c r="C34" s="110" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="23" t="s">
         <v>94</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>95</v>
       </c>
       <c r="E34" s="138">
         <f>'Research data'!H33</f>
@@ -4043,15 +3972,15 @@
       </c>
       <c r="F34" s="110"/>
       <c r="G34" s="110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H34" s="110"/>
       <c r="I34" s="113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J34" s="117"/>
     </row>
-    <row r="35" spans="1:10" ht="16" thickBot="1">
+    <row r="35" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="114"/>
       <c r="B35" s="115"/>
       <c r="C35" s="110" t="s">
@@ -4069,7 +3998,7 @@
       <c r="I35" s="113"/>
       <c r="J35" s="117"/>
     </row>
-    <row r="36" spans="1:10" ht="16" thickBot="1">
+    <row r="36" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="114"/>
       <c r="B36" s="122"/>
       <c r="C36" s="123"/>
@@ -4081,7 +4010,7 @@
       <c r="I36" s="123"/>
       <c r="J36" s="124"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="114"/>
       <c r="B37" s="114"/>
       <c r="C37" s="114"/>
@@ -4093,7 +4022,7 @@
       <c r="I37" s="114"/>
       <c r="J37" s="114"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="114"/>
       <c r="B38" s="114"/>
       <c r="C38" s="114"/>
@@ -4105,7 +4034,7 @@
       <c r="I38" s="114"/>
       <c r="J38" s="114"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="114"/>
       <c r="B39" s="114"/>
       <c r="C39" s="114"/>
@@ -4117,7 +4046,7 @@
       <c r="I39" s="114"/>
       <c r="J39" s="114"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="114"/>
       <c r="B40" s="114"/>
       <c r="E40" s="114"/>
@@ -4127,7 +4056,7 @@
       <c r="I40" s="114"/>
       <c r="J40" s="114"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="114"/>
       <c r="B41" s="114"/>
       <c r="C41" s="114"/>
@@ -4139,7 +4068,7 @@
       <c r="I41" s="114"/>
       <c r="J41" s="114"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="114"/>
       <c r="B42" s="114"/>
       <c r="C42" s="114"/>
@@ -4151,7 +4080,7 @@
       <c r="I42" s="114"/>
       <c r="J42" s="114"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="114"/>
       <c r="B43" s="114"/>
       <c r="C43" s="114"/>
@@ -4163,7 +4092,7 @@
       <c r="I43" s="114"/>
       <c r="J43" s="114"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="114"/>
       <c r="B44" s="114"/>
       <c r="C44" s="114"/>
@@ -4175,10 +4104,10 @@
       <c r="I44" s="114"/>
       <c r="J44" s="114"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="114"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="114"/>
     </row>
   </sheetData>
@@ -4187,43 +4116,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4238,34 +4130,34 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="42" customWidth="1"/>
     <col min="2" max="2" width="3" style="42" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="42" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="42" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="42" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="42" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="42" customWidth="1"/>
     <col min="7" max="7" width="3" style="42" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="42" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="42" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="42" customWidth="1"/>
-    <col min="12" max="12" width="15.875" style="42" customWidth="1"/>
-    <col min="13" max="13" width="2.375" style="42" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="42" customWidth="1"/>
-    <col min="15" max="15" width="2.125" style="42" customWidth="1"/>
-    <col min="16" max="16" width="12.25" style="42" customWidth="1"/>
-    <col min="17" max="17" width="3.125" style="42" customWidth="1"/>
-    <col min="18" max="18" width="23.375" style="42" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="42" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="42" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="42" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="42" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" style="42" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="42" customWidth="1"/>
+    <col min="17" max="17" width="3.140625" style="42" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" style="42" customWidth="1"/>
     <col min="19" max="19" width="11" style="42" customWidth="1"/>
-    <col min="20" max="20" width="2.5" style="42" customWidth="1"/>
-    <col min="21" max="21" width="22.375" style="42" customWidth="1"/>
-    <col min="22" max="16384" width="10.625" style="42"/>
+    <col min="20" max="20" width="2.42578125" style="42" customWidth="1"/>
+    <col min="21" max="21" width="22.42578125" style="42" customWidth="1"/>
+    <col min="22" max="16384" width="10.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="16" thickBot="1"/>
-    <row r="3" spans="1:21">
+    <row r="2" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -4287,7 +4179,7 @@
       <c r="T3" s="44"/>
       <c r="U3" s="44"/>
     </row>
-    <row r="4" spans="1:21" s="26" customFormat="1">
+    <row r="4" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="C4" s="91" t="s">
         <v>19</v>
@@ -4299,30 +4191,30 @@
       </c>
       <c r="G4" s="91"/>
       <c r="H4" s="91" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="91"/>
       <c r="J4" s="91" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K4" s="91"/>
       <c r="L4" s="91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M4" s="91"/>
       <c r="N4" s="91" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O4" s="91"/>
       <c r="P4" s="91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="91"/>
       <c r="R4" s="91" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="18" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="45"/>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
@@ -4338,7 +4230,7 @@
       <c r="N5" s="49"/>
       <c r="R5" s="55"/>
     </row>
-    <row r="6" spans="1:21" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="45"/>
       <c r="C6" s="12" t="s">
         <v>44</v>
@@ -4359,10 +4251,10 @@
       <c r="Q6" s="46"/>
       <c r="R6" s="53"/>
     </row>
-    <row r="7" spans="1:21" ht="16" thickBot="1">
+    <row r="7" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="45"/>
       <c r="C7" s="112" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="51"/>
       <c r="E7" s="51"/>
@@ -4386,10 +4278,10 @@
       <c r="Q7" s="46"/>
       <c r="R7" s="109"/>
     </row>
-    <row r="8" spans="1:21" ht="16" thickBot="1">
+    <row r="8" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="45"/>
       <c r="C8" s="112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
@@ -4413,10 +4305,10 @@
       <c r="Q8" s="46"/>
       <c r="R8" s="109"/>
     </row>
-    <row r="9" spans="1:21" ht="16" thickBot="1">
+    <row r="9" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="45"/>
       <c r="C9" s="112" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="51"/>
@@ -4442,15 +4334,15 @@
       <c r="Q9" s="46"/>
       <c r="R9" s="53"/>
     </row>
-    <row r="10" spans="1:21" ht="16" thickBot="1">
+    <row r="10" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="45"/>
-      <c r="C10" s="193" t="s">
-        <v>182</v>
+      <c r="C10" s="184" t="s">
+        <v>181</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
       <c r="F10" s="126" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" s="92"/>
       <c r="H10" s="106">
@@ -4471,11 +4363,11 @@
       <c r="Q10" s="46"/>
       <c r="R10" s="109"/>
     </row>
-    <row r="11" spans="1:21" ht="16" thickBot="1">
+    <row r="11" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="114"/>
       <c r="B11" s="115"/>
       <c r="C11" s="110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="51"/>
@@ -4502,16 +4394,16 @@
       <c r="R11" s="153"/>
       <c r="S11" s="114"/>
     </row>
-    <row r="12" spans="1:21" ht="16" thickBot="1">
+    <row r="12" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="114"/>
       <c r="B12" s="115"/>
       <c r="C12" s="152" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="112"/>
       <c r="E12" s="112"/>
       <c r="F12" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H12" s="116">
         <f>P12</f>
@@ -4532,11 +4424,11 @@
       <c r="R12" s="153"/>
       <c r="S12" s="114"/>
     </row>
-    <row r="13" spans="1:21" ht="16" thickBot="1">
+    <row r="13" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="114"/>
       <c r="B13" s="115"/>
       <c r="C13" s="141" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
@@ -4558,11 +4450,11 @@
       <c r="R13" s="153"/>
       <c r="S13" s="114"/>
     </row>
-    <row r="14" spans="1:21" ht="16" thickBot="1">
+    <row r="14" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="114"/>
       <c r="B14" s="115"/>
       <c r="C14" s="141" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -4584,11 +4476,11 @@
       <c r="R14" s="153"/>
       <c r="S14" s="114"/>
     </row>
-    <row r="15" spans="1:21" ht="16" thickBot="1">
+    <row r="15" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="114"/>
       <c r="B15" s="115"/>
       <c r="C15" s="110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -4603,7 +4495,7 @@
       <c r="R15" s="153"/>
       <c r="S15" s="114"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16" s="45"/>
       <c r="I16" s="110"/>
       <c r="J16" s="114"/>
@@ -4616,7 +4508,7 @@
       <c r="Q16" s="46"/>
       <c r="R16" s="153"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="114"/>
       <c r="B17" s="115"/>
       <c r="C17" s="34"/>
@@ -4630,7 +4522,7 @@
       <c r="Q17" s="46"/>
       <c r="R17" s="55"/>
     </row>
-    <row r="18" spans="1:18" ht="16" thickBot="1">
+    <row r="18" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="114"/>
       <c r="B18" s="115"/>
       <c r="C18" s="12" t="s">
@@ -4646,11 +4538,11 @@
       <c r="Q18" s="48"/>
       <c r="R18" s="109"/>
     </row>
-    <row r="19" spans="1:18" ht="16" thickBot="1">
+    <row r="19" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="114"/>
       <c r="B19" s="115"/>
       <c r="C19" s="131" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="125"/>
       <c r="E19" s="125"/>
@@ -4671,14 +4563,14 @@
       <c r="Q19" s="48"/>
       <c r="R19" s="109"/>
     </row>
-    <row r="20" spans="1:18" ht="16" thickBot="1">
+    <row r="20" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="114"/>
       <c r="B20" s="115"/>
       <c r="C20" s="131" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="133" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="127">
         <f>N20</f>
@@ -4692,14 +4584,14 @@
         <v>2648341.5300546447</v>
       </c>
       <c r="R20" s="136" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="16" thickBot="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="114"/>
       <c r="B21" s="115"/>
       <c r="C21" s="131" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="133" t="s">
         <v>20</v>
@@ -4716,17 +4608,17 @@
         <v>2079770.4918032784</v>
       </c>
       <c r="R21" s="136" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="16" thickBot="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="114"/>
       <c r="B22" s="115"/>
       <c r="C22" s="131" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="126" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="143">
         <f>N22</f>
@@ -4740,17 +4632,17 @@
         <v>2.120718247541034E-4</v>
       </c>
       <c r="R22" s="136" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="16" thickBot="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="114"/>
       <c r="B23" s="115"/>
       <c r="C23" s="131" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" s="126" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H23" s="142">
         <f>Notes!E241</f>
@@ -4764,14 +4656,14 @@
         <v>277.30273224043714</v>
       </c>
       <c r="R23" s="136" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="16" thickBot="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="158"/>
       <c r="B24" s="159"/>
       <c r="C24" s="157" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D24" s="158"/>
       <c r="E24" s="158"/>
@@ -4793,14 +4685,14 @@
       <c r="O24" s="162"/>
       <c r="Q24" s="158"/>
       <c r="R24" s="162" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="16" thickBot="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="158"/>
       <c r="B25" s="159"/>
       <c r="C25" s="157" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D25" s="158"/>
       <c r="E25" s="158"/>
@@ -4823,14 +4715,14 @@
       <c r="O25" s="158"/>
       <c r="Q25" s="158"/>
       <c r="R25" s="162" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="16" thickBot="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="114"/>
       <c r="B26" s="115"/>
       <c r="C26" s="157" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F26" s="157" t="s">
         <v>20</v>
@@ -4850,16 +4742,16 @@
       </c>
       <c r="R26" s="136"/>
     </row>
-    <row r="27" spans="1:18" ht="16" thickBot="1">
+    <row r="27" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="158"/>
       <c r="B27" s="159"/>
       <c r="C27" s="163" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D27" s="158"/>
       <c r="E27" s="158"/>
       <c r="F27" s="157" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G27" s="158"/>
       <c r="H27" s="160">
@@ -4876,17 +4768,17 @@
       <c r="O27" s="158"/>
       <c r="Q27" s="158"/>
       <c r="R27" s="153" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R28" s="53"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B29" s="45"/>
       <c r="R29" s="109"/>
     </row>
-    <row r="30" spans="1:18" ht="16" thickBot="1">
+    <row r="30" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="114"/>
       <c r="B30" s="115"/>
       <c r="C30" s="34" t="s">
@@ -4905,7 +4797,7 @@
       <c r="Q30" s="46"/>
       <c r="R30" s="153"/>
     </row>
-    <row r="31" spans="1:18" ht="16" thickBot="1">
+    <row r="31" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="114"/>
       <c r="B31" s="115"/>
       <c r="C31" s="130" t="s">
@@ -4932,11 +4824,11 @@
       <c r="Q31" s="46"/>
       <c r="R31" s="153"/>
     </row>
-    <row r="32" spans="1:18" ht="16" thickBot="1">
+    <row r="32" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="114"/>
       <c r="B32" s="115"/>
       <c r="C32" s="112" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F32" s="126" t="s">
         <v>1</v>
@@ -4959,14 +4851,14 @@
       <c r="Q32" s="46"/>
       <c r="R32" s="153"/>
     </row>
-    <row r="33" spans="1:18" ht="16" thickBot="1">
+    <row r="33" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="114"/>
       <c r="B33" s="115"/>
       <c r="C33" s="125" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="126" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H33" s="137">
         <f>N33</f>
@@ -4985,10 +4877,10 @@
       <c r="P33" s="46"/>
       <c r="Q33" s="46"/>
       <c r="R33" s="136" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="16" thickBot="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="114"/>
       <c r="B34" s="115"/>
       <c r="C34" s="104" t="s">
@@ -5000,55 +4892,55 @@
       </c>
       <c r="R34" s="109"/>
     </row>
-    <row r="35" spans="1:18" ht="16" thickBot="1">
+    <row r="35" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="114"/>
       <c r="B35" s="115"/>
       <c r="C35" s="141" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H35" s="118">
         <v>442800</v>
       </c>
       <c r="R35" s="153"/>
     </row>
-    <row r="36" spans="1:18" ht="16" thickBot="1">
+    <row r="36" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="114"/>
       <c r="B36" s="115"/>
       <c r="C36" s="141" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H36" s="118">
         <v>0</v>
       </c>
       <c r="R36" s="153"/>
     </row>
-    <row r="37" spans="1:18" ht="16" thickBot="1">
+    <row r="37" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="114"/>
       <c r="B37" s="115"/>
       <c r="C37" s="141" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H37" s="118">
         <v>2835000</v>
       </c>
       <c r="R37" s="153"/>
     </row>
-    <row r="38" spans="1:18" ht="16" thickBot="1">
+    <row r="38" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="114"/>
       <c r="B38" s="115"/>
       <c r="C38" s="141" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H38" s="118">
         <v>534600</v>
       </c>
       <c r="R38" s="153"/>
     </row>
-    <row r="39" spans="1:18" ht="16" thickBot="1">
+    <row r="39" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="114"/>
       <c r="B39" s="115"/>
       <c r="C39" s="141" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H39" s="118">
         <v>354600</v>
@@ -5058,11 +4950,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5077,22 +4964,22 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="57" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="57" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="57" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="57" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="57" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="57" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="62" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="62" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="57" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="57"/>
+    <col min="1" max="1" width="3.42578125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="57" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="57" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="57" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="62" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="62" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="57" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="58"/>
       <c r="C2" s="59"/>
       <c r="D2" s="59"/>
@@ -5103,7 +4990,7 @@
       <c r="I2" s="63"/>
       <c r="J2" s="59"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="60"/>
       <c r="C3" s="13" t="s">
         <v>15</v>
@@ -5116,7 +5003,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="56"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="60"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -5127,7 +5014,7 @@
       <c r="I4" s="64"/>
       <c r="J4" s="56"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="65"/>
       <c r="C5" s="15" t="s">
         <v>16</v>
@@ -5142,19 +5029,19 @@
         <v>17</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>18</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="60"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -5165,16 +5052,16 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="60"/>
       <c r="C7" s="134" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="119" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="56">
         <v>2015</v>
@@ -5186,16 +5073,16 @@
         <v>42328</v>
       </c>
       <c r="I7" s="100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="60"/>
       <c r="C8" s="114" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
@@ -5205,10 +5092,10 @@
       <c r="I8" s="56"/>
       <c r="J8" s="56"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="60"/>
       <c r="C9" s="134" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="108"/>
       <c r="E9" s="108"/>
@@ -5217,7 +5104,7 @@
       <c r="H9" s="103"/>
       <c r="I9" s="56"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="60"/>
       <c r="C10" s="66"/>
       <c r="D10" s="56"/>
@@ -5228,16 +5115,16 @@
       <c r="I10" s="100"/>
       <c r="J10" s="99"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="60"/>
       <c r="C11" s="134" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="119" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="56">
         <v>2014</v>
@@ -5249,16 +5136,16 @@
         <v>42328</v>
       </c>
       <c r="I11" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="119" t="s">
         <v>142</v>
       </c>
-      <c r="J11" s="119" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="60"/>
       <c r="C12" s="135" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
@@ -5268,7 +5155,7 @@
       <c r="I12" s="56"/>
       <c r="J12" s="56"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="60"/>
       <c r="C13" s="135"/>
       <c r="D13" s="56"/>
@@ -5279,13 +5166,13 @@
       <c r="I13" s="56"/>
       <c r="J13" s="56"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="60"/>
       <c r="C14" s="114" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E14" s="108"/>
       <c r="F14" s="56">
@@ -5298,13 +5185,13 @@
         <v>42328</v>
       </c>
       <c r="I14" s="119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J14" s="98" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="60"/>
       <c r="E15" s="108"/>
       <c r="F15" s="56"/>
@@ -5313,16 +5200,16 @@
       <c r="I15" s="119"/>
       <c r="J15" s="98"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="60"/>
       <c r="C16" s="134" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="114" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="119" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="56">
         <v>2015</v>
@@ -5334,34 +5221,34 @@
         <v>42328</v>
       </c>
       <c r="I16" s="119" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J16" s="56" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="60"/>
       <c r="C17" s="114" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="60"/>
       <c r="C18" s="114" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="60"/>
       <c r="C19" s="134" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="60"/>
       <c r="C20" s="135" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
@@ -5371,10 +5258,10 @@
       <c r="I20" s="56"/>
       <c r="J20" s="56"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="60"/>
       <c r="C21" s="134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
@@ -5384,7 +5271,7 @@
       <c r="I21" s="100"/>
       <c r="J21" s="56"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="60"/>
       <c r="D22" s="56"/>
       <c r="E22" s="56"/>
@@ -5395,14 +5282,9 @@
       <c r="J22" s="56"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5417,23 +5299,23 @@
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="67" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="67" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="67" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="67" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="67" customWidth="1"/>
     <col min="4" max="4" width="4" style="67" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="67" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="67" customWidth="1"/>
-    <col min="7" max="13" width="10.625" style="67"/>
-    <col min="14" max="14" width="15.75" style="67" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="67"/>
-    <col min="16" max="16" width="54.75" style="67" customWidth="1"/>
-    <col min="17" max="16384" width="10.625" style="67"/>
+    <col min="5" max="5" width="13.140625" style="67" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="67" customWidth="1"/>
+    <col min="7" max="13" width="10.7109375" style="67"/>
+    <col min="14" max="14" width="15.7109375" style="67" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="67"/>
+    <col min="16" max="16" width="54.7109375" style="67" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" thickBot="1"/>
-    <row r="2" spans="1:15">
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" s="68"/>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -5448,14 +5330,14 @@
       <c r="M2" s="69"/>
       <c r="N2" s="70"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="71"/>
       <c r="B3" s="96"/>
       <c r="C3" s="75" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="75" t="s">
         <v>25</v>
@@ -5470,7 +5352,7 @@
       <c r="M3" s="72"/>
       <c r="N3" s="97"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="73"/>
       <c r="C4" s="74"/>
       <c r="D4" s="74"/>
@@ -5486,7 +5368,7 @@
       <c r="N4" s="74"/>
       <c r="O4" s="74"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="73"/>
       <c r="D5" s="74"/>
       <c r="E5" s="74"/>
@@ -5501,7 +5383,7 @@
       <c r="N5" s="74"/>
       <c r="O5" s="74"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="73"/>
       <c r="D6" s="74"/>
       <c r="G6" s="74"/>
@@ -5514,7 +5396,7 @@
       <c r="N6" s="74"/>
       <c r="O6" s="74"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="73"/>
       <c r="D7" s="74"/>
       <c r="E7" s="74"/>
@@ -5529,7 +5411,7 @@
       <c r="N7" s="74"/>
       <c r="O7" s="74"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="73"/>
       <c r="D8" s="74"/>
       <c r="E8" s="74"/>
@@ -5544,7 +5426,7 @@
       <c r="N8" s="74"/>
       <c r="O8" s="74"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9" s="73"/>
       <c r="C9" s="74"/>
       <c r="D9" s="74"/>
@@ -5560,7 +5442,7 @@
       <c r="N9" s="74"/>
       <c r="O9" s="74"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="73"/>
       <c r="C10" s="74"/>
       <c r="D10" s="74"/>
@@ -5576,7 +5458,7 @@
       <c r="N10" s="74"/>
       <c r="O10" s="74"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="73"/>
       <c r="C11" s="74"/>
       <c r="D11" s="74"/>
@@ -5592,7 +5474,7 @@
       <c r="N11" s="74"/>
       <c r="O11" s="74"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B12" s="73"/>
       <c r="C12" s="74"/>
       <c r="D12" s="74"/>
@@ -5608,7 +5490,7 @@
       <c r="N12" s="74"/>
       <c r="O12" s="74"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="73"/>
       <c r="C13" s="74"/>
       <c r="D13" s="74"/>
@@ -5624,7 +5506,7 @@
       <c r="N13" s="74"/>
       <c r="O13" s="74"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" s="73"/>
       <c r="C14" s="74"/>
       <c r="D14" s="74"/>
@@ -5640,7 +5522,7 @@
       <c r="N14" s="74"/>
       <c r="O14" s="74"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="73"/>
       <c r="C15" s="74"/>
       <c r="D15" s="74"/>
@@ -5656,7 +5538,7 @@
       <c r="N15" s="74"/>
       <c r="O15" s="74"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="73"/>
       <c r="C16" s="74"/>
       <c r="D16" s="74"/>
@@ -5672,10 +5554,10 @@
       <c r="N16" s="74"/>
       <c r="O16" s="74"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="73"/>
       <c r="C17" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="74"/>
       <c r="I17" s="74"/>
@@ -5686,7 +5568,7 @@
       <c r="N17" s="74"/>
       <c r="O17" s="74"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="73"/>
       <c r="C18" s="74"/>
       <c r="D18" s="74"/>
@@ -5698,10 +5580,10 @@
       <c r="N18" s="74"/>
       <c r="O18" s="74"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="73"/>
       <c r="C19" s="74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="74"/>
       <c r="E19" s="74"/>
@@ -5716,7 +5598,7 @@
       <c r="N19" s="74"/>
       <c r="O19" s="74"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="73"/>
       <c r="C20" s="74"/>
       <c r="D20" s="74"/>
@@ -5732,7 +5614,7 @@
       <c r="N20" s="74"/>
       <c r="O20" s="74"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="73"/>
       <c r="C21" s="74"/>
       <c r="D21" s="74"/>
@@ -5748,7 +5630,7 @@
       <c r="N21" s="74"/>
       <c r="O21" s="74"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="73"/>
       <c r="C22" s="74"/>
       <c r="D22" s="74"/>
@@ -5764,7 +5646,7 @@
       <c r="N22" s="74"/>
       <c r="O22" s="74"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="73"/>
       <c r="C23" s="74"/>
       <c r="D23" s="74"/>
@@ -5780,7 +5662,7 @@
       <c r="N23" s="74"/>
       <c r="O23" s="74"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="73"/>
       <c r="C24" s="74"/>
       <c r="D24" s="74"/>
@@ -5796,7 +5678,7 @@
       <c r="N24" s="74"/>
       <c r="O24" s="74"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="73"/>
       <c r="C25" s="74"/>
       <c r="D25" s="74"/>
@@ -5812,7 +5694,7 @@
       <c r="N25" s="74"/>
       <c r="O25" s="74"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="73"/>
       <c r="C26" s="74"/>
       <c r="D26" s="74"/>
@@ -5828,7 +5710,7 @@
       <c r="N26" s="74"/>
       <c r="O26" s="74"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="73"/>
       <c r="C27" s="74"/>
       <c r="D27" s="74"/>
@@ -5844,7 +5726,7 @@
       <c r="N27" s="74"/>
       <c r="O27" s="74"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="73"/>
       <c r="C28" s="74"/>
       <c r="D28" s="74"/>
@@ -5852,13 +5734,13 @@
         <v>156250</v>
       </c>
       <c r="F28" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="74" t="s">
-        <v>71</v>
-      </c>
       <c r="H28" s="74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I28" s="74"/>
       <c r="J28" s="74"/>
@@ -5868,7 +5750,7 @@
       <c r="N28" s="74"/>
       <c r="O28" s="74"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="73"/>
       <c r="C29" s="74"/>
       <c r="D29" s="74"/>
@@ -5876,10 +5758,10 @@
         <v>1942</v>
       </c>
       <c r="F29" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29" s="74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H29" s="74"/>
       <c r="I29" s="74"/>
@@ -5890,7 +5772,7 @@
       <c r="N29" s="74"/>
       <c r="O29" s="74"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="73"/>
       <c r="C30" s="74"/>
       <c r="D30" s="74"/>
@@ -5906,7 +5788,7 @@
       <c r="N30" s="74"/>
       <c r="O30" s="74"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="73"/>
       <c r="C31" s="74"/>
       <c r="D31" s="74"/>
@@ -5922,7 +5804,7 @@
       <c r="N31" s="74"/>
       <c r="O31" s="74"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="73"/>
       <c r="C32" s="74"/>
       <c r="D32" s="74"/>
@@ -5938,7 +5820,7 @@
       <c r="N32" s="74"/>
       <c r="O32" s="74"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="73"/>
       <c r="C33" s="74"/>
       <c r="E33" s="74">
@@ -5947,7 +5829,7 @@
       </c>
       <c r="F33" s="74"/>
       <c r="G33" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
@@ -5958,14 +5840,14 @@
       <c r="N33" s="74"/>
       <c r="O33" s="74"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="73"/>
       <c r="E34" s="74">
         <f>E29/($E$28+$E$29)</f>
         <v>1.2276221300697885E-2</v>
       </c>
       <c r="G34" s="67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" s="74"/>
       <c r="I34" s="74"/>
@@ -5976,7 +5858,7 @@
       <c r="N34" s="74"/>
       <c r="O34" s="74"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="73"/>
       <c r="C35" s="74"/>
       <c r="D35" s="74"/>
@@ -5992,7 +5874,7 @@
       <c r="N35" s="74"/>
       <c r="O35" s="74"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="73"/>
       <c r="C36" s="74"/>
       <c r="D36" s="74"/>
@@ -6001,7 +5883,7 @@
       </c>
       <c r="F36" s="74"/>
       <c r="G36" s="74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H36" s="74"/>
       <c r="I36" s="74"/>
@@ -6012,7 +5894,7 @@
       <c r="N36" s="74"/>
       <c r="O36" s="74"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="73"/>
       <c r="C37" s="74"/>
       <c r="D37" s="74"/>
@@ -6028,7 +5910,7 @@
       <c r="N37" s="74"/>
       <c r="O37" s="74"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="73"/>
       <c r="C38" s="74"/>
       <c r="D38" s="74"/>
@@ -6042,7 +5924,7 @@
       <c r="N38" s="74"/>
       <c r="O38" s="74"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="73"/>
       <c r="C39" s="74"/>
       <c r="D39" s="74"/>
@@ -6058,7 +5940,7 @@
       <c r="N39" s="74"/>
       <c r="O39" s="74"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="73"/>
       <c r="C40" s="74"/>
       <c r="D40" s="74"/>
@@ -6074,7 +5956,7 @@
       <c r="N40" s="74"/>
       <c r="O40" s="74"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="73"/>
       <c r="C41" s="74"/>
       <c r="D41" s="74"/>
@@ -6090,7 +5972,7 @@
       <c r="N41" s="74"/>
       <c r="O41" s="74"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="73"/>
       <c r="C42" s="74"/>
       <c r="K42" s="74"/>
@@ -6099,7 +5981,7 @@
       <c r="N42" s="74"/>
       <c r="O42" s="74"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="73"/>
       <c r="C43" s="74"/>
       <c r="K43" s="74"/>
@@ -6108,7 +5990,7 @@
       <c r="N43" s="74"/>
       <c r="O43" s="74"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="73"/>
       <c r="C44" s="74"/>
       <c r="K44" s="74"/>
@@ -6117,7 +5999,7 @@
       <c r="N44" s="74"/>
       <c r="O44" s="74"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="73"/>
       <c r="C45" s="74"/>
       <c r="K45" s="74"/>
@@ -6126,7 +6008,7 @@
       <c r="N45" s="74"/>
       <c r="O45" s="74"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="73"/>
       <c r="C46" s="74"/>
       <c r="E46" s="102"/>
@@ -6137,7 +6019,7 @@
       <c r="N46" s="74"/>
       <c r="O46" s="74"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="73"/>
       <c r="C47" s="74"/>
       <c r="E47" s="74"/>
@@ -6148,7 +6030,7 @@
       <c r="N47" s="74"/>
       <c r="O47" s="74"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="73"/>
       <c r="C48" s="74"/>
       <c r="K48" s="74"/>
@@ -6157,7 +6039,7 @@
       <c r="N48" s="74"/>
       <c r="O48" s="74"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="73"/>
       <c r="C49" s="74"/>
       <c r="K49" s="74"/>
@@ -6166,7 +6048,7 @@
       <c r="N49" s="74"/>
       <c r="O49" s="74"/>
     </row>
-    <row r="50" spans="2:15" ht="16">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="73"/>
       <c r="C50" s="74"/>
       <c r="J50"/>
@@ -6176,10 +6058,10 @@
       <c r="N50" s="74"/>
       <c r="O50" s="74"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="73"/>
       <c r="C51" s="67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D51" s="74"/>
       <c r="K51" s="74"/>
@@ -6188,7 +6070,7 @@
       <c r="N51" s="74"/>
       <c r="O51" s="74"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="73"/>
       <c r="C52" s="74"/>
       <c r="D52" s="74"/>
@@ -6198,10 +6080,10 @@
       <c r="N52" s="74"/>
       <c r="O52" s="74"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="73"/>
       <c r="C53" s="74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D53" s="74"/>
       <c r="K53" s="74"/>
@@ -6210,7 +6092,7 @@
       <c r="N53" s="74"/>
       <c r="O53" s="74"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="73"/>
       <c r="C54" s="74"/>
       <c r="D54" s="74"/>
@@ -6220,7 +6102,7 @@
       <c r="N54" s="74"/>
       <c r="O54" s="74"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="73"/>
       <c r="C55" s="74"/>
       <c r="D55" s="74"/>
@@ -6230,7 +6112,7 @@
       <c r="N55" s="74"/>
       <c r="O55" s="74"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="73"/>
       <c r="C56" s="74"/>
       <c r="K56" s="74"/>
@@ -6239,7 +6121,7 @@
       <c r="N56" s="74"/>
       <c r="O56" s="74"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="73"/>
       <c r="C57" s="74"/>
       <c r="K57" s="74"/>
@@ -6248,7 +6130,7 @@
       <c r="N57" s="74"/>
       <c r="O57" s="74"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="73"/>
       <c r="C58" s="74"/>
       <c r="K58" s="74"/>
@@ -6257,14 +6139,14 @@
       <c r="N58" s="74"/>
       <c r="O58" s="74"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="73"/>
       <c r="C59" s="74"/>
       <c r="E59" s="67">
         <v>130000</v>
       </c>
       <c r="F59" s="67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K59" s="74"/>
       <c r="L59" s="74"/>
@@ -6272,7 +6154,7 @@
       <c r="N59" s="74"/>
       <c r="O59" s="74"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="73"/>
       <c r="C60" s="74"/>
       <c r="K60" s="74"/>
@@ -6281,14 +6163,14 @@
       <c r="N60" s="74"/>
       <c r="O60" s="74"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="73"/>
       <c r="C61" s="74"/>
       <c r="E61" s="67">
         <v>8.3750000000000005E-2</v>
       </c>
       <c r="F61" s="67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K61" s="74"/>
       <c r="L61" s="74"/>
@@ -6296,14 +6178,14 @@
       <c r="N61" s="74"/>
       <c r="O61" s="74"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="73"/>
       <c r="C62" s="74"/>
       <c r="E62" s="67">
         <v>120.1</v>
       </c>
       <c r="F62" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K62" s="74"/>
       <c r="L62" s="74"/>
@@ -6311,7 +6193,7 @@
       <c r="N62" s="74"/>
       <c r="O62" s="74"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="73"/>
       <c r="C63" s="74"/>
       <c r="K63" s="74"/>
@@ -6320,7 +6202,7 @@
       <c r="N63" s="74"/>
       <c r="O63" s="74"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="73"/>
       <c r="C64" s="74"/>
       <c r="E64" s="67">
@@ -6328,7 +6210,7 @@
         <v>1307588.75</v>
       </c>
       <c r="F64" s="67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K64" s="74"/>
       <c r="L64" s="74"/>
@@ -6336,7 +6218,7 @@
       <c r="N64" s="74"/>
       <c r="O64" s="74"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="73"/>
       <c r="C65" s="74"/>
       <c r="E65" s="67">
@@ -6344,7 +6226,7 @@
         <v>261300</v>
       </c>
       <c r="F65" s="67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K65" s="74"/>
       <c r="L65" s="74"/>
@@ -6352,7 +6234,7 @@
       <c r="N65" s="74"/>
       <c r="O65" s="74"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="73"/>
       <c r="C66" s="74"/>
       <c r="E66" s="67">
@@ -6360,10 +6242,10 @@
         <v>363.21909722222222</v>
       </c>
       <c r="F66" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="G66" s="67" t="s">
         <v>79</v>
-      </c>
-      <c r="G66" s="67" t="s">
-        <v>80</v>
       </c>
       <c r="K66" s="74"/>
       <c r="L66" s="74"/>
@@ -6371,7 +6253,7 @@
       <c r="N66" s="74"/>
       <c r="O66" s="74"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="73"/>
       <c r="C67" s="74"/>
       <c r="E67" s="67">
@@ -6379,10 +6261,10 @@
         <v>504.47096836419752</v>
       </c>
       <c r="F67" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G67" s="67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K67" s="74"/>
       <c r="L67" s="74"/>
@@ -6390,7 +6272,7 @@
       <c r="N67" s="74"/>
       <c r="O67" s="74"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="73"/>
       <c r="C68" s="74"/>
       <c r="K68" s="74"/>
@@ -6399,7 +6281,7 @@
       <c r="N68" s="74"/>
       <c r="O68" s="74"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="73"/>
       <c r="C69" s="74"/>
       <c r="E69" s="67">
@@ -6409,7 +6291,7 @@
         <v>20</v>
       </c>
       <c r="G69" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K69" s="74"/>
       <c r="L69" s="74"/>
@@ -6417,7 +6299,7 @@
       <c r="N69" s="74"/>
       <c r="O69" s="74"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="73"/>
       <c r="C70" s="74"/>
       <c r="K70" s="74"/>
@@ -6426,7 +6308,7 @@
       <c r="N70" s="74"/>
       <c r="O70" s="74"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="73"/>
       <c r="C71" s="74"/>
       <c r="K71" s="74"/>
@@ -6435,7 +6317,7 @@
       <c r="N71" s="74"/>
       <c r="O71" s="74"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="73"/>
       <c r="C72" s="74"/>
       <c r="K72" s="74"/>
@@ -6444,7 +6326,7 @@
       <c r="N72" s="74"/>
       <c r="O72" s="74"/>
     </row>
-    <row r="73" spans="2:15">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B73" s="73"/>
       <c r="C73" s="74"/>
       <c r="K73" s="74"/>
@@ -6453,7 +6335,7 @@
       <c r="N73" s="74"/>
       <c r="O73" s="74"/>
     </row>
-    <row r="74" spans="2:15">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B74" s="73"/>
       <c r="K74" s="74"/>
       <c r="L74" s="74"/>
@@ -6461,7 +6343,7 @@
       <c r="N74" s="74"/>
       <c r="O74" s="74"/>
     </row>
-    <row r="75" spans="2:15">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B75" s="73"/>
       <c r="K75" s="74"/>
       <c r="L75" s="74"/>
@@ -6469,188 +6351,188 @@
       <c r="N75" s="74"/>
       <c r="O75" s="74"/>
     </row>
-    <row r="76" spans="2:15">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B76" s="73"/>
       <c r="N76" s="74"/>
       <c r="O76" s="74"/>
     </row>
-    <row r="77" spans="2:15" ht="16">
+    <row r="77" spans="2:15" ht="17" x14ac:dyDescent="0.2">
       <c r="B77" s="73"/>
       <c r="C77" s="144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N77" s="74"/>
       <c r="O77" s="74"/>
     </row>
-    <row r="78" spans="2:15">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B78" s="73"/>
       <c r="N78" s="74"/>
       <c r="O78" s="74"/>
     </row>
-    <row r="79" spans="2:15">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="73"/>
       <c r="C79" s="67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N79" s="74"/>
       <c r="O79" s="74"/>
     </row>
-    <row r="80" spans="2:15">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B80" s="73"/>
       <c r="E80" s="67">
         <v>7500</v>
       </c>
       <c r="F80" s="67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N80" s="74"/>
       <c r="O80" s="74"/>
     </row>
-    <row r="81" spans="2:15">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B81" s="73"/>
       <c r="N81" s="74"/>
       <c r="O81" s="74"/>
     </row>
-    <row r="82" spans="2:15">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B82" s="73"/>
       <c r="N82" s="74"/>
       <c r="O82" s="74"/>
     </row>
-    <row r="83" spans="2:15">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B83" s="73"/>
       <c r="N83" s="74"/>
       <c r="O83" s="74"/>
     </row>
-    <row r="84" spans="2:15">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B84" s="73"/>
       <c r="N84" s="74"/>
       <c r="O84" s="74"/>
     </row>
-    <row r="85" spans="2:15">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B85" s="73"/>
       <c r="N85" s="74"/>
       <c r="O85" s="74"/>
     </row>
-    <row r="86" spans="2:15">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B86" s="73"/>
       <c r="N86" s="74"/>
       <c r="O86" s="74"/>
     </row>
-    <row r="87" spans="2:15">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B87" s="73"/>
       <c r="N87" s="74"/>
       <c r="O87" s="74"/>
     </row>
-    <row r="88" spans="2:15">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B88" s="73"/>
       <c r="N88" s="74"/>
       <c r="O88" s="74"/>
     </row>
-    <row r="89" spans="2:15">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B89" s="73"/>
       <c r="N89" s="74"/>
       <c r="O89" s="74"/>
     </row>
-    <row r="90" spans="2:15">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B90" s="73"/>
       <c r="N90" s="74"/>
       <c r="O90" s="74"/>
     </row>
-    <row r="91" spans="2:15">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B91" s="73"/>
       <c r="N91" s="74"/>
       <c r="O91" s="74"/>
     </row>
-    <row r="92" spans="2:15">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B92" s="73"/>
       <c r="N92" s="74"/>
       <c r="O92" s="74"/>
     </row>
-    <row r="93" spans="2:15">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" s="73"/>
       <c r="N93" s="74"/>
       <c r="O93" s="74"/>
     </row>
-    <row r="94" spans="2:15">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" s="73"/>
       <c r="N94" s="74"/>
       <c r="O94" s="74"/>
     </row>
-    <row r="95" spans="2:15">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" s="73"/>
       <c r="N95" s="74"/>
       <c r="O95" s="74"/>
     </row>
-    <row r="96" spans="2:15">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" s="73"/>
       <c r="N96" s="74"/>
       <c r="O96" s="74"/>
     </row>
-    <row r="97" spans="2:17">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B97" s="73"/>
       <c r="N97" s="74"/>
       <c r="O97" s="74"/>
     </row>
-    <row r="98" spans="2:17">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B98" s="73"/>
       <c r="N98" s="74"/>
       <c r="O98" s="74"/>
     </row>
-    <row r="99" spans="2:17">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B99" s="73"/>
       <c r="N99" s="74"/>
       <c r="O99" s="74"/>
     </row>
-    <row r="100" spans="2:17">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B100" s="73"/>
       <c r="N100" s="74"/>
       <c r="O100" s="74"/>
     </row>
-    <row r="101" spans="2:17">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B101" s="73"/>
       <c r="N101" s="74"/>
       <c r="O101" s="74"/>
     </row>
-    <row r="102" spans="2:17">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B102" s="73"/>
       <c r="N102" s="74"/>
       <c r="O102" s="74"/>
     </row>
-    <row r="103" spans="2:17">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B103" s="73"/>
       <c r="N103" s="74"/>
       <c r="O103" s="74"/>
     </row>
-    <row r="104" spans="2:17">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B104" s="73"/>
       <c r="N104" s="74"/>
       <c r="O104" s="74"/>
     </row>
-    <row r="105" spans="2:17">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B105" s="73"/>
       <c r="N105" s="74"/>
       <c r="O105" s="74"/>
     </row>
-    <row r="106" spans="2:17">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B106" s="73"/>
       <c r="C106" s="67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N106" s="74"/>
       <c r="O106" s="74"/>
     </row>
-    <row r="107" spans="2:17" ht="16" thickBot="1">
+    <row r="107" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B107" s="73"/>
       <c r="C107" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N107" s="74"/>
       <c r="O107" s="74"/>
     </row>
-    <row r="108" spans="2:17">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B108" s="73"/>
       <c r="C108" s="74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J108" s="167"/>
       <c r="K108" s="168"/>
@@ -6661,15 +6543,15 @@
       <c r="P108" s="168"/>
       <c r="Q108" s="169"/>
     </row>
-    <row r="109" spans="2:17" ht="18">
+    <row r="109" spans="2:17" ht="19" x14ac:dyDescent="0.25">
       <c r="B109" s="73"/>
       <c r="C109" s="74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D109" s="74"/>
       <c r="J109" s="170"/>
       <c r="K109" s="171" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L109" s="171" t="s">
         <v>8</v>
@@ -6681,14 +6563,14 @@
         <v>7</v>
       </c>
       <c r="O109" s="171" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P109" s="171" t="s">
         <v>0</v>
       </c>
       <c r="Q109" s="172"/>
     </row>
-    <row r="110" spans="2:17" ht="19" thickBot="1">
+    <row r="110" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="73"/>
       <c r="C110" s="74"/>
       <c r="J110" s="173"/>
@@ -6700,46 +6582,46 @@
       <c r="P110" s="174"/>
       <c r="Q110" s="175"/>
     </row>
-    <row r="111" spans="2:17" ht="19" thickBot="1">
+    <row r="111" spans="2:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="73"/>
       <c r="C111" s="67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E111" s="182">
         <f>M111</f>
         <v>1.0980000000000001</v>
       </c>
       <c r="F111" s="67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G111" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J111" s="173"/>
       <c r="K111" s="153" t="s">
+        <v>55</v>
+      </c>
+      <c r="L111" s="153" t="s">
         <v>56</v>
-      </c>
-      <c r="L111" s="153" t="s">
-        <v>57</v>
       </c>
       <c r="M111" s="176">
         <v>1.0980000000000001</v>
       </c>
       <c r="N111" s="153" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O111" s="177">
         <v>42221</v>
       </c>
       <c r="P111" s="178" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q111" s="175"/>
     </row>
-    <row r="112" spans="2:17" ht="16" thickBot="1">
+    <row r="112" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B112" s="73"/>
       <c r="C112" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J112" s="179"/>
       <c r="K112" s="180"/>
@@ -6750,286 +6632,286 @@
       <c r="P112" s="180"/>
       <c r="Q112" s="181"/>
     </row>
-    <row r="113" spans="2:15">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B113" s="73"/>
       <c r="C113" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N113" s="74"/>
       <c r="O113" s="74"/>
     </row>
-    <row r="114" spans="2:15">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B114" s="73"/>
       <c r="C114" s="67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F114" s="139"/>
       <c r="N114" s="74"/>
       <c r="O114" s="74"/>
     </row>
-    <row r="115" spans="2:15">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B115" s="73"/>
       <c r="C115" s="67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N115" s="74"/>
       <c r="O115" s="74"/>
     </row>
-    <row r="116" spans="2:15">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B116" s="73"/>
       <c r="N116" s="74"/>
       <c r="O116" s="74"/>
     </row>
-    <row r="117" spans="2:15">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B117" s="73"/>
       <c r="N117" s="74"/>
       <c r="O117" s="74"/>
     </row>
-    <row r="118" spans="2:15">
+    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B118" s="73"/>
       <c r="N118" s="74"/>
       <c r="O118" s="74"/>
     </row>
-    <row r="119" spans="2:15">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119" s="73"/>
       <c r="N119" s="74"/>
       <c r="O119" s="74"/>
     </row>
-    <row r="120" spans="2:15">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120" s="73"/>
       <c r="N120" s="74"/>
       <c r="O120" s="74"/>
     </row>
-    <row r="121" spans="2:15">
+    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B121" s="73"/>
       <c r="C121" s="74"/>
       <c r="N121" s="74"/>
       <c r="O121" s="74"/>
     </row>
-    <row r="122" spans="2:15">
+    <row r="122" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B122" s="73"/>
       <c r="C122" s="74"/>
       <c r="N122" s="74"/>
       <c r="O122" s="74"/>
     </row>
-    <row r="123" spans="2:15">
+    <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123" s="73"/>
       <c r="C123" s="74"/>
     </row>
-    <row r="124" spans="2:15">
+    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B124" s="73"/>
       <c r="C124" s="74"/>
     </row>
-    <row r="125" spans="2:15">
+    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B125" s="73"/>
       <c r="C125" s="74"/>
     </row>
-    <row r="126" spans="2:15">
+    <row r="126" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B126" s="73"/>
       <c r="C126" s="74"/>
       <c r="E126" s="140">
         <v>90</v>
       </c>
       <c r="F126" s="67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G126" s="67" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="2:15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127" s="73"/>
       <c r="E127" s="67">
         <f>E126/100</f>
         <v>0.9</v>
       </c>
       <c r="G127" s="67" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="128" spans="2:15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B128" s="73"/>
       <c r="E128" s="67">
         <f>E80</f>
         <v>7500</v>
       </c>
       <c r="F128" s="67" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" s="73"/>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="73"/>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="73"/>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="73"/>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="73"/>
     </row>
-    <row r="134" spans="2:7">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" s="73"/>
       <c r="E134" s="67">
         <v>40</v>
       </c>
       <c r="F134" s="67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G134" s="67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="73"/>
       <c r="E135" s="67">
         <v>3</v>
       </c>
       <c r="F135" s="67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G135" s="67" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="73"/>
     </row>
-    <row r="137" spans="2:7">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="73"/>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="73"/>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="73"/>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="73"/>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="73"/>
     </row>
-    <row r="142" spans="2:7">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="73"/>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="73"/>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="73"/>
     </row>
-    <row r="145" spans="2:7">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="73"/>
       <c r="E145" s="67">
         <v>10</v>
       </c>
       <c r="F145" s="67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G145" s="67" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="146" spans="2:7">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" s="73"/>
       <c r="E146" s="67">
         <f>E145/100</f>
         <v>0.1</v>
       </c>
       <c r="G146" s="67" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="147" spans="2:7">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="73"/>
     </row>
-    <row r="148" spans="2:7">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" s="73"/>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="73"/>
     </row>
-    <row r="150" spans="2:7">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" s="73"/>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" s="73"/>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" s="73"/>
     </row>
-    <row r="153" spans="2:7">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="73"/>
     </row>
-    <row r="154" spans="2:7">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="73"/>
     </row>
-    <row r="155" spans="2:7">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B155" s="73"/>
     </row>
-    <row r="156" spans="2:7">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" s="73"/>
     </row>
-    <row r="157" spans="2:7">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" s="73"/>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" s="73"/>
     </row>
-    <row r="159" spans="2:7">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B159" s="73"/>
     </row>
-    <row r="160" spans="2:7">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B160" s="73"/>
     </row>
-    <row r="161" spans="2:7">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" s="73"/>
     </row>
-    <row r="162" spans="2:7">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B162" s="73"/>
     </row>
-    <row r="163" spans="2:7">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B163" s="73"/>
     </row>
-    <row r="164" spans="2:7">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B164" s="73"/>
     </row>
-    <row r="165" spans="2:7">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B165" s="73"/>
     </row>
-    <row r="166" spans="2:7">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B166" s="73"/>
     </row>
-    <row r="167" spans="2:7">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B167" s="73"/>
     </row>
-    <row r="168" spans="2:7">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B168" s="73"/>
     </row>
-    <row r="169" spans="2:7">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B169" s="73"/>
     </row>
-    <row r="170" spans="2:7">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B170" s="73"/>
     </row>
-    <row r="171" spans="2:7">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B171" s="73"/>
       <c r="E171" s="67">
         <v>149865595</v>
       </c>
       <c r="F171" s="67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G171" s="67" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="172" spans="2:7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B172" s="73"/>
       <c r="E172" s="67">
         <f>E171/E111</f>
@@ -7039,10 +6921,10 @@
         <v>20</v>
       </c>
       <c r="G172" s="67" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B173" s="73"/>
       <c r="E173" s="67">
         <f>E172*E146</f>
@@ -7052,73 +6934,73 @@
         <v>20</v>
       </c>
       <c r="G173" s="67" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="174" spans="2:7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B174" s="73"/>
     </row>
-    <row r="175" spans="2:7">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B175" s="73"/>
     </row>
-    <row r="176" spans="2:7">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B176" s="73"/>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B177" s="73"/>
       <c r="E177" s="67">
         <v>7.9952892230000003</v>
       </c>
       <c r="F177" s="67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G177" s="67" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B178" s="73"/>
       <c r="E178" s="67">
         <f>E177*0.00404686</f>
         <v>3.235581614498978E-2</v>
       </c>
       <c r="F178" s="67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G178" s="67" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="166"/>
       <c r="B179" s="183"/>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="166"/>
       <c r="B180" s="183"/>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="166"/>
       <c r="B181" s="183"/>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="166"/>
       <c r="B182" s="183"/>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="166"/>
       <c r="B183" s="183"/>
       <c r="E183" s="67">
         <v>150280948</v>
       </c>
       <c r="F183" s="67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G183" s="67" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="166"/>
       <c r="B184" s="183"/>
       <c r="E184" s="67">
@@ -7129,99 +7011,99 @@
         <v>20</v>
       </c>
       <c r="G184" s="67" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="166"/>
       <c r="B185" s="183"/>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="166"/>
       <c r="B186" s="183"/>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="166"/>
       <c r="B187" s="183"/>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="166"/>
       <c r="B188" s="183"/>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="166"/>
       <c r="B189" s="183"/>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="166"/>
       <c r="B190" s="183"/>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="166"/>
       <c r="B191" s="183"/>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="166"/>
       <c r="B192" s="183"/>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="166"/>
       <c r="B193" s="183"/>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="166"/>
       <c r="B194" s="183"/>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="166"/>
       <c r="B195" s="183"/>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="166"/>
       <c r="B196" s="183"/>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="166"/>
       <c r="B197" s="183"/>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="166"/>
       <c r="B198" s="183"/>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="166"/>
       <c r="B199" s="183"/>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="166"/>
       <c r="B200" s="183"/>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="166"/>
       <c r="B201" s="183"/>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="166"/>
       <c r="B202" s="183"/>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="166"/>
       <c r="B203" s="183"/>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="166"/>
       <c r="B204" s="183"/>
       <c r="E204" s="67">
         <v>2907879</v>
       </c>
       <c r="F204" s="67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G204" s="67" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="166"/>
       <c r="B205" s="183"/>
       <c r="E205" s="67">
@@ -7229,125 +7111,125 @@
         <v>2648341.5300546447</v>
       </c>
       <c r="F205" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G205" s="67" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="166"/>
       <c r="B206" s="183"/>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="166"/>
       <c r="B207" s="183"/>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="166"/>
       <c r="B208" s="183"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="166"/>
       <c r="B209" s="183"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="166"/>
       <c r="B210" s="183"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="166"/>
       <c r="B211" s="183"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="166"/>
       <c r="B212" s="183"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="166"/>
       <c r="B213" s="183"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="166"/>
       <c r="B214" s="183"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="166"/>
       <c r="B215" s="183"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="166"/>
       <c r="B216" s="183"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="166"/>
       <c r="B217" s="183"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="166"/>
       <c r="B218" s="183"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="166"/>
       <c r="B219" s="183"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="166"/>
       <c r="B220" s="183"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="166"/>
       <c r="B221" s="183"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="166"/>
       <c r="B222" s="183"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="166"/>
       <c r="B223" s="183"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="166"/>
       <c r="B224" s="183"/>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="166"/>
       <c r="B225" s="183"/>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="166"/>
       <c r="B226" s="183"/>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="166"/>
       <c r="B227" s="183"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="166"/>
       <c r="B228" s="183"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="166"/>
       <c r="B229" s="183"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="166"/>
       <c r="B230" s="183"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="166"/>
       <c r="B231" s="183"/>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="166"/>
       <c r="B232" s="183"/>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="166"/>
       <c r="B233" s="183"/>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="166"/>
       <c r="B234" s="183"/>
       <c r="E234" s="67">
@@ -7355,13 +7237,13 @@
         <v>2283588</v>
       </c>
       <c r="F234" s="67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G234" s="67" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="166"/>
       <c r="B235" s="183"/>
       <c r="E235" s="67">
@@ -7369,28 +7251,28 @@
         <v>2079770.4918032784</v>
       </c>
       <c r="F235" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G235" s="67" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="166"/>
       <c r="B236" s="183"/>
       <c r="G236" s="67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="166"/>
       <c r="B237" s="183"/>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="166"/>
       <c r="B238" s="183"/>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="166"/>
       <c r="B239" s="183"/>
       <c r="E239" s="67">
@@ -7398,13 +7280,13 @@
         <v>9806915625</v>
       </c>
       <c r="F239" s="67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G239" s="67" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="166"/>
       <c r="B240" s="183"/>
       <c r="E240" s="67">
@@ -7412,13 +7294,13 @@
         <v>2.120718247541034E-4</v>
       </c>
       <c r="F240" s="67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G240" s="67" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="166"/>
       <c r="B241" s="183"/>
       <c r="E241" s="67">
@@ -7426,149 +7308,149 @@
         <v>277.30273224043714</v>
       </c>
       <c r="F241" s="67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G241" s="67" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="166"/>
       <c r="B242" s="183"/>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="166"/>
       <c r="B243" s="183"/>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="166"/>
       <c r="B244" s="183"/>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="166"/>
       <c r="B245" s="183"/>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="166"/>
       <c r="B246" s="183"/>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="166"/>
       <c r="B247" s="183"/>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="166"/>
       <c r="B248" s="183"/>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="166"/>
       <c r="B249" s="183"/>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="166"/>
       <c r="B250" s="183"/>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="166"/>
       <c r="B251" s="183"/>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="166"/>
       <c r="B252" s="183"/>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="166"/>
       <c r="B253" s="183"/>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="166"/>
       <c r="B254" s="183"/>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="166"/>
       <c r="B255" s="183"/>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="166"/>
       <c r="B256" s="183"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="166"/>
       <c r="B257" s="183"/>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="166"/>
       <c r="B258" s="183"/>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="166"/>
       <c r="B259" s="183"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="166"/>
       <c r="B260" s="183"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="166"/>
       <c r="B261" s="183"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="166"/>
       <c r="B262" s="183"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="166"/>
       <c r="B263" s="183"/>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="166"/>
       <c r="B264" s="183"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="166"/>
       <c r="B265" s="183"/>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="166"/>
       <c r="B266" s="183"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="166"/>
       <c r="B267" s="183"/>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="166"/>
       <c r="B268" s="183"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="166"/>
       <c r="B269" s="183"/>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="166"/>
       <c r="B270" s="183"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="166"/>
       <c r="B271" s="183"/>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="166"/>
       <c r="B272" s="183"/>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="166"/>
       <c r="B273" s="183"/>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="166"/>
       <c r="B274" s="183"/>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="166"/>
       <c r="B275" s="183"/>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="166"/>
       <c r="B276" s="183"/>
     </row>
@@ -7576,10 +7458,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>